--- a/data/hotels_by_city/Houston/Houston_shard_540.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_540.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d3191802-Reviews-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-Houston-I-10-WestPark-Row.h5111071.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1221 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r581044202-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>3191802</t>
+  </si>
+  <si>
+    <t>581044202</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>My experience at this location was fantastic. The front desk staff and housekeeping was patient, helpful and really friendly. He property is well kept and clean. I would definitely recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>My experience at this location was fantastic. The front desk staff and housekeeping was patient, helpful and really friendly. He property is well kept and clean. I would definitely recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r570634668-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570634668</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>They make you feel home ..!!</t>
+  </si>
+  <si>
+    <t>I have stayed here for almost 6 months.   This place is clean and quiet, The hotel staff including house keeping ,  are very warm friendly and were willing to assist at anytime  . As said they make you feel home.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed here for almost 6 months.   This place is clean and quiet, The hotel staff including house keeping ,  are very warm friendly and were willing to assist at anytime  . As said they make you feel home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r569400718-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569400718</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Good and recommended place to stay in Houston. Good Peoples are at front desk with always happy to assist you. Clean, comfortable rooms and an excellent breakfast. Overall Nice place to stay. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Good and recommended place to stay in Houston. Good Peoples are at front desk with always happy to assist you. Clean, comfortable rooms and an excellent breakfast. Overall Nice place to stay. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r560531939-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560531939</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>I have always liked Residence Inns and this property is a shining example of the chain.Friendly, helpful staff. Clean, comfortable rooms and an above average breakfast.Great location too, easy to go in any direction.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>I have always liked Residence Inns and this property is a shining example of the chain.Friendly, helpful staff. Clean, comfortable rooms and an above average breakfast.Great location too, easy to go in any direction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r557748039-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557748039</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Coronado Soccer Girls</t>
+  </si>
+  <si>
+    <t>I would like to comment how pleased we were with the service provided to our team by the entire hotel staff.  Especially superior service to Erica Seigneur (Sales) for making this happen.  The staff always maintained a positive attitude and ensured us a welcome stay, treating us with dignity and respect.  We will definitely  recommend your hotel to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>I would like to comment how pleased we were with the service provided to our team by the entire hotel staff.  Especially superior service to Erica Seigneur (Sales) for making this happen.  The staff always maintained a positive attitude and ensured us a welcome stay, treating us with dignity and respect.  We will definitely  recommend your hotel to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r536722272-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536722272</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>The staff made this a 5 Star experience</t>
+  </si>
+  <si>
+    <t>My company booked this lodging, and I must say, so glad they did. We had business in the state and this hotel was very attentive to our special needs. The staff is what made all the difference. Greatly appreciated the relaxed atmosphere (most of time), even with that early morning "wake-up" day. I highly recommend this establishment for all travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>My company booked this lodging, and I must say, so glad they did. We had business in the state and this hotel was very attentive to our special needs. The staff is what made all the difference. Greatly appreciated the relaxed atmosphere (most of time), even with that early morning "wake-up" day. I highly recommend this establishment for all travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r496577435-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496577435</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Great Visit</t>
+  </si>
+  <si>
+    <t>checked into the residence inn on Barker Cypress, had a great experience.  the room's rate were very affordable and upon arrival the rooms were more than what i expected.  the bed was very comfortable the rooms were big and clean.  the staff at the hotel were very friendly and welcoming.  breakfast was good and plenty available.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>checked into the residence inn on Barker Cypress, had a great experience.  the room's rate were very affordable and upon arrival the rooms were more than what i expected.  the bed was very comfortable the rooms were big and clean.  the staff at the hotel were very friendly and welcoming.  breakfast was good and plenty available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r496568330-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496568330</t>
+  </si>
+  <si>
+    <t>Nice clean hotel</t>
+  </si>
+  <si>
+    <t>This hotel is very nice and clean. It seems brand new. The room was a good size, with a comfortable living room seating area. The manager and staff were excellent. It is located in a very nice part of Houston that is convenient to several large hospitals.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is very nice and clean. It seems brand new. The room was a good size, with a comfortable living room seating area. The manager and staff were excellent. It is located in a very nice part of Houston that is convenient to several large hospitals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r496221942-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496221942</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>weekend stay</t>
+  </si>
+  <si>
+    <t>I spent the weekend at the residence inn. The staff was friendly as soon as we walked in the door. They had a good breakfast variety which included gluten free items for those who need it. Great amenities which include a pool, exercise room, gas grill and business center. Good location. I would repeat if I were in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent the weekend at the residence inn. The staff was friendly as soon as we walked in the door. They had a good breakfast variety which included gluten free items for those who need it. Great amenities which include a pool, exercise room, gas grill and business center. Good location. I would repeat if I were in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r489721883-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489721883</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable and Convenient</t>
+  </si>
+  <si>
+    <t>Stayed here on business for 3 days. This hotel is conveniently located right off of I-10 and near to many services. The facility here is clean and comfortable. Staff was very nice and accommodating. Room had all the typical RI amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here on business for 3 days. This hotel is conveniently located right off of I-10 and near to many services. The facility here is clean and comfortable. Staff was very nice and accommodating. Room had all the typical RI amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r488557251-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488557251</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Outstanding stay</t>
+  </si>
+  <si>
+    <t>Stayed at this property for a month. Exactly expected from a Marriott stay with exceptional guest services. Studio was very spacious, clean kitchen, comfortable sofa and bed. Near freeway entrance is a bonus!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this property for a month. Exactly expected from a Marriott stay with exceptional guest services. Studio was very spacious, clean kitchen, comfortable sofa and bed. Near freeway entrance is a bonus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r479341113-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479341113</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable and clean</t>
+  </si>
+  <si>
+    <t>Traveling across Country my husband and I stopped here for a night after driving for over 16 hours.  The hotel staff was very nice.  The rooms are very clean and spacious.  There is a lot of room for parking. Breakfast is free and served from 6-9am. Wish we could have stayed longer. If we are ever in the area again we will be staying at this location.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Traveling across Country my husband and I stopped here for a night after driving for over 16 hours.  The hotel staff was very nice.  The rooms are very clean and spacious.  There is a lot of room for parking. Breakfast is free and served from 6-9am. Wish we could have stayed longer. If we are ever in the area again we will be staying at this location.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r462983218-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462983218</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government </t>
+  </si>
+  <si>
+    <t>Really enjoyed my stay here, the room was more then what I expected. Even though my stay was only for one night I would definitely come again! The breakfast was good as well, I was running late and they gave me a to go plate so I could be in my way! Great place overall MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Really enjoyed my stay here, the room was more then what I expected. Even though my stay was only for one night I would definitely come again! The breakfast was good as well, I was running late and they gave me a to go plate so I could be in my way! Great place overall More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r462444598-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462444598</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Stayed with Residence Inn by Marriot till I had my babies.</t>
+  </si>
+  <si>
+    <t>I stayed at The Residence Inn by marriot, on barkers Cypress road for 4 months. It was a great stay. They have a quiet and relaxing environment. Lovely friendly staff. Always always ready to help. A really nice place. Loved their breakfast. A place to stay when in Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at The Residence Inn by marriot, on barkers Cypress road for 4 months. It was a great stay. They have a quiet and relaxing environment. Lovely friendly staff. Always always ready to help. A really nice place. Loved their breakfast. A place to stay when in Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r461451580-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461451580</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Perfect stay!</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn for three days visiting family. It was an excellent experience! The staff was friendly and incredibly accommodating. We were a little late for breakfast but their staff served us anyway. Moises went out of his way to serve us eggs and sausage! The general manager, Mark was very professional and took great care of us. He does an excellent job maintaining the hotel. The location is close to Katy and not too far from downtown, which was exactly what we needed for our stay. Our doggies loved their room too! We will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn for three days visiting family. It was an excellent experience! The staff was friendly and incredibly accommodating. We were a little late for breakfast but their staff served us anyway. Moises went out of his way to serve us eggs and sausage! The general manager, Mark was very professional and took great care of us. He does an excellent job maintaining the hotel. The location is close to Katy and not too far from downtown, which was exactly what we needed for our stay. Our doggies loved their room too! We will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r448206364-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448206364</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>They took care of us!</t>
+  </si>
+  <si>
+    <t>It was a great hotel especially for a long term. They definitely took good care of us. I think the best part was the staff. They were very friendly and helpful. I think I got to talk to almost every single one of the employees at the front desk, and they were so great. Also, housekeeping ladies, maintenance guys, the old man in the kitchen, and definitely security guy at night--they were all amazing! I really appreciate all their work they did for us.Our favorite staff members were:Johana (not sure if I spelled correctly), amazing housekeeping lady with nice smile all the time!David, thanks for inviting us to the mixer from the moment we checked in. We felt very welcome.Lastly, I never got the name, but the gentleman in the kitchen who prepares amazing breakfast! Thank you for feeding us so well with fresh and delicious food every morning!If you're considering staying here for a long term,-A room by an exit/elevator cannot avoid from outside or hallway.-Laundry room is located on the second floor, and each washer/dryer costs only a dollar.-At breakfast, hot dishes (e.g., eggs, sausage) are the same almost every day.-There's a security guy at night, if that makes you feel safer. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>It was a great hotel especially for a long term. They definitely took good care of us. I think the best part was the staff. They were very friendly and helpful. I think I got to talk to almost every single one of the employees at the front desk, and they were so great. Also, housekeeping ladies, maintenance guys, the old man in the kitchen, and definitely security guy at night--they were all amazing! I really appreciate all their work they did for us.Our favorite staff members were:Johana (not sure if I spelled correctly), amazing housekeeping lady with nice smile all the time!David, thanks for inviting us to the mixer from the moment we checked in. We felt very welcome.Lastly, I never got the name, but the gentleman in the kitchen who prepares amazing breakfast! Thank you for feeding us so well with fresh and delicious food every morning!If you're considering staying here for a long term,-A room by an exit/elevator cannot avoid from outside or hallway.-Laundry room is located on the second floor, and each washer/dryer costs only a dollar.-At breakfast, hot dishes (e.g., eggs, sausage) are the same almost every day.-There's a security guy at night, if that makes you feel safer. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r440975755-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440975755</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Thanksgiving in Houston</t>
+  </si>
+  <si>
+    <t>The room was clean and equipped with everything we needed. The staff was friendly and helpful.  We enjoyed the breakfast which included both hot and cold choices. The location was great for visiting family off the Greenhouse exit off I-10.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2016</t>
+  </si>
+  <si>
+    <t>The room was clean and equipped with everything we needed. The staff was friendly and helpful.  We enjoyed the breakfast which included both hot and cold choices. The location was great for visiting family off the Greenhouse exit off I-10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r423690688-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423690688</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Hotel was very nice and staff was beyond excellant.  Helpful in every way, room was hugh, will stay again in nov when i go back for business trip!  Breakfast was good, got a kick out of pepperoni made for breakfast, but was suprisingly a great item paid with eggs.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was very nice and staff was beyond excellant.  Helpful in every way, room was hugh, will stay again in nov when i go back for business trip!  Breakfast was good, got a kick out of pepperoni made for breakfast, but was suprisingly a great item paid with eggs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r379066306-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379066306</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>A clean and nice standard Residence inn</t>
+  </si>
+  <si>
+    <t>A nice clean and newer Residence inn with a very attentive staff and ask for Nor at the desk, they have a nice breakfast in the morning, A out door pool and wine and beer are nice at happy hour at the end of the day.Stormchaser says nice stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>A nice clean and newer Residence inn with a very attentive staff and ask for Nor at the desk, they have a nice breakfast in the morning, A out door pool and wine and beer are nice at happy hour at the end of the day.Stormchaser says nice stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r373843989-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373843989</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>OTC</t>
+  </si>
+  <si>
+    <t>Was here once again for the OTC show, stay here for every show.  Close, clean, friendly, free breakfast, free drinks and some nights dinner.  Good  friendly staff eager to serve.  Shuttle will take you to local restaurants and pick you up at no charge.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Was here once again for the OTC show, stay here for every show.  Close, clean, friendly, free breakfast, free drinks and some nights dinner.  Good  friendly staff eager to serve.  Shuttle will take you to local restaurants and pick you up at no charge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r373521437-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373521437</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>A good stay over spot</t>
+  </si>
+  <si>
+    <t>Great little hotel they have an in door pool and Jacuzzi. Rooms are clean and fresh. We use it as a stop over hotel on our way to Central America. The people were nice and they had the normal smart little breakfast nook area. Good fresh  coffee and good people to help you and give instructions on how to get around to the local spots. They are close to a Kroger and several other places if you need to get a few things. This is one of the few hotels in the area that was open during and after the rain storm in Houston. It was about a twenty dollar or so uber ride from the IAH airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Great little hotel they have an in door pool and Jacuzzi. Rooms are clean and fresh. We use it as a stop over hotel on our way to Central America. The people were nice and they had the normal smart little breakfast nook area. Good fresh  coffee and good people to help you and give instructions on how to get around to the local spots. They are close to a Kroger and several other places if you need to get a few things. This is one of the few hotels in the area that was open during and after the rain storm in Houston. It was about a twenty dollar or so uber ride from the IAH airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r349400928-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349400928</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Great for extended stay</t>
+  </si>
+  <si>
+    <t>This hotel is lovely and clean.  The rooms are very spacious enough to live in.  The full kitchen is great if you want to bring in your own food, or they will stock it for you at your request.  Hot breakfast every morning and evening snacks are also a plus.  The staff are very friendly and helpful.  Best place to stay in west Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is lovely and clean.  The rooms are very spacious enough to live in.  The full kitchen is great if you want to bring in your own food, or they will stock it for you at your request.  Hot breakfast every morning and evening snacks are also a plus.  The staff are very friendly and helpful.  Best place to stay in west Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r343127673-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343127673</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Great Service, Great People, Great Hotel</t>
+  </si>
+  <si>
+    <t>Me and my family were there for end of the year celebrations, everybody in the hotel were super nice, they help us a lot. well located, close to shops, restaurants and gas stations. you can tell is the new decoration, don't know if it is new or remodeled.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded February 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2016</t>
+  </si>
+  <si>
+    <t>Me and my family were there for end of the year celebrations, everybody in the hotel were super nice, they help us a lot. well located, close to shops, restaurants and gas stations. you can tell is the new decoration, don't know if it is new or remodeled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r341508087-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341508087</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Best hotel during our trip</t>
+  </si>
+  <si>
+    <t>We picked up this hotel based on it's rating on TripAdvisor.  We are surprised in a positive way.  The hotel staff is very friendly and helpful.  The happy hour was great.  The breakfast is also very good.  You will not regret by picking this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>We picked up this hotel based on it's rating on TripAdvisor.  We are surprised in a positive way.  The hotel staff is very friendly and helpful.  The happy hour was great.  The breakfast is also very good.  You will not regret by picking this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r326385335-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326385335</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Undivided attention!</t>
+  </si>
+  <si>
+    <t>Tasteful contemporary decor.  We were greeted with a good smile and appreciation of my platinum status. Usually you don't hear this kind of comment unless you are staying in a full service hotel such as a Marriott Hotel. Noor was our front desk representative who was courteous and friendly to help us for the room in order of our personal preference.  We enjoyed our stay very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Tasteful contemporary decor.  We were greeted with a good smile and appreciation of my platinum status. Usually you don't hear this kind of comment unless you are staying in a full service hotel such as a Marriott Hotel. Noor was our front desk representative who was courteous and friendly to help us for the room in order of our personal preference.  We enjoyed our stay very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r326016328-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326016328</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Excellent services</t>
+  </si>
+  <si>
+    <t>Me, my wife, and daughter, stayed at the his property for 2 weeks and we were very satisfied. Right from Mraco,the manager, to the counter staff Dimitra,Noor, Issac, Kailen, Brian, breakfast staff of Meena and Moses, and the housekeeping staff of Larisha and Marisha were very helpful. They went out of their way to make us feel at home. Thank You all.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Me, my wife, and daughter, stayed at the his property for 2 weeks and we were very satisfied. Right from Mraco,the manager, to the counter staff Dimitra,Noor, Issac, Kailen, Brian, breakfast staff of Meena and Moses, and the housekeeping staff of Larisha and Marisha were very helpful. They went out of their way to make us feel at home. Thank You all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r313511435-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313511435</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>Great stay on business</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights on business. Great staff on reception - asked if I minded being checked in by a staff on training, which was no problem. The room itself was clean, very comfortable. Housekeeping was carried out daily. Complimentary buffet breakfast was great and set me up nicely for each day. Colleagues of mine are staying here soon and I have told tem they will not be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights on business. Great staff on reception - asked if I minded being checked in by a staff on training, which was no problem. The room itself was clean, very comfortable. Housekeeping was carried out daily. Complimentary buffet breakfast was great and set me up nicely for each day. Colleagues of mine are staying here soon and I have told tem they will not be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r280255803-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280255803</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Won't disappoint</t>
+  </si>
+  <si>
+    <t>Driving from San Antonio to Charleston SC. Forced to stop earlier than planned due to a sick child. Very nice room and large. Never stayed at a Residence Inn but this place would have me book in the future. First floor room with ac unit outside my window but found the white noise a comfort. Little pricey for one night but its near a major city so its expected. Gorgeous room. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Driving from San Antonio to Charleston SC. Forced to stop earlier than planned due to a sick child. Very nice room and large. Never stayed at a Residence Inn but this place would have me book in the future. First floor room with ac unit outside my window but found the white noise a comfort. Little pricey for one night but its near a major city so its expected. Gorgeous room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r275864647-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275864647</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Good hotel except for initial check in</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel around 11:30 PM due to delays at the car rental agency.  When we tried to check in, the door to the building was locked and no one was available at the front desk.  It looked deserted.  I got very worried because we had a sleeping baby in the car and no way to check into our room after a long flight and delays.  I was scared we would have to find another hotel at this late in the night.  Fortunately, there were some guests outside barbequeing and I had asked them about why the door was locked.  They let me in with their key card and mentioned the front desk should be 24 hours.  I was finally able to get to the front desk and tried calling out to see if someone was in the back office.  But there was no reply. After about 10 minutes of waiting and about to call the hotel phone number with my cell phone, the front desk clerk finally arrived.  Apparently, he was pulled away by another guest emergency that he had to attend to. I was relieved that we were finally able to check in but very upset that I had to go through this ordeal just because there was only one person manning the front desk and managing the entire hotel for that matter.  I think something like this could have been avoided if there were at...We arrived at the hotel around 11:30 PM due to delays at the car rental agency.  When we tried to check in, the door to the building was locked and no one was available at the front desk.  It looked deserted.  I got very worried because we had a sleeping baby in the car and no way to check into our room after a long flight and delays.  I was scared we would have to find another hotel at this late in the night.  Fortunately, there were some guests outside barbequeing and I had asked them about why the door was locked.  They let me in with their key card and mentioned the front desk should be 24 hours.  I was finally able to get to the front desk and tried calling out to see if someone was in the back office.  But there was no reply. After about 10 minutes of waiting and about to call the hotel phone number with my cell phone, the front desk clerk finally arrived.  Apparently, he was pulled away by another guest emergency that he had to attend to. I was relieved that we were finally able to check in but very upset that I had to go through this ordeal just because there was only one person manning the front desk and managing the entire hotel for that matter.  I think something like this could have been avoided if there were at least 2 people managing the front desk such that there would always be someone available.  People check in at hotels at various times.  Otherwise have an intercom system set up at the front door when locked, so that the front desk clerk (if pulled away for some reason) can be paged wherever he's at.Other than an inconvenient first start, the hotel was pretty good for our family.  They provided a pack-n-play for a crib and non-fitted sheets.  It was brought up after we checked in.  It would have been nice if it was already in our room.  The room was spacious and clean and we enjoyed having the small kitchenette to keep and clean baby nutrition items.  The kitchen was also very well stocked with dishes, utensils, knives, cookware, etc.  We only had the free breakfast once during our stay and liked the fact that there were available high chairs for our baby.  The breakfast was standard...sausages, scrambled eggs, potatoes, make-your-own-waffles, cereals, oatmeal, coffee, juice, milk, yogurts, apples, bananas, oranges, toast, bagels, and english muffins.  The fresh fruits, yogurts, and bread items run out very fast and they don't seem to replenish them once they are all gone for that day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Juli A, Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel around 11:30 PM due to delays at the car rental agency.  When we tried to check in, the door to the building was locked and no one was available at the front desk.  It looked deserted.  I got very worried because we had a sleeping baby in the car and no way to check into our room after a long flight and delays.  I was scared we would have to find another hotel at this late in the night.  Fortunately, there were some guests outside barbequeing and I had asked them about why the door was locked.  They let me in with their key card and mentioned the front desk should be 24 hours.  I was finally able to get to the front desk and tried calling out to see if someone was in the back office.  But there was no reply. After about 10 minutes of waiting and about to call the hotel phone number with my cell phone, the front desk clerk finally arrived.  Apparently, he was pulled away by another guest emergency that he had to attend to. I was relieved that we were finally able to check in but very upset that I had to go through this ordeal just because there was only one person manning the front desk and managing the entire hotel for that matter.  I think something like this could have been avoided if there were at...We arrived at the hotel around 11:30 PM due to delays at the car rental agency.  When we tried to check in, the door to the building was locked and no one was available at the front desk.  It looked deserted.  I got very worried because we had a sleeping baby in the car and no way to check into our room after a long flight and delays.  I was scared we would have to find another hotel at this late in the night.  Fortunately, there were some guests outside barbequeing and I had asked them about why the door was locked.  They let me in with their key card and mentioned the front desk should be 24 hours.  I was finally able to get to the front desk and tried calling out to see if someone was in the back office.  But there was no reply. After about 10 minutes of waiting and about to call the hotel phone number with my cell phone, the front desk clerk finally arrived.  Apparently, he was pulled away by another guest emergency that he had to attend to. I was relieved that we were finally able to check in but very upset that I had to go through this ordeal just because there was only one person manning the front desk and managing the entire hotel for that matter.  I think something like this could have been avoided if there were at least 2 people managing the front desk such that there would always be someone available.  People check in at hotels at various times.  Otherwise have an intercom system set up at the front door when locked, so that the front desk clerk (if pulled away for some reason) can be paged wherever he's at.Other than an inconvenient first start, the hotel was pretty good for our family.  They provided a pack-n-play for a crib and non-fitted sheets.  It was brought up after we checked in.  It would have been nice if it was already in our room.  The room was spacious and clean and we enjoyed having the small kitchenette to keep and clean baby nutrition items.  The kitchen was also very well stocked with dishes, utensils, knives, cookware, etc.  We only had the free breakfast once during our stay and liked the fact that there were available high chairs for our baby.  The breakfast was standard...sausages, scrambled eggs, potatoes, make-your-own-waffles, cereals, oatmeal, coffee, juice, milk, yogurts, apples, bananas, oranges, toast, bagels, and english muffins.  The fresh fruits, yogurts, and bread items run out very fast and they don't seem to replenish them once they are all gone for that day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r275785487-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275785487</t>
+  </si>
+  <si>
+    <t>Very Nice Relaxing Stay</t>
+  </si>
+  <si>
+    <t>We were in town for a wedding and had 2 rooms for several days. Housekeeping did a good job of keeping the rooms cleaned despite us being in and out of the room. The front desk staff, housekeeping and the breakfast staff were very friendly. I gave 4 stars instead of 5 because there weren't enough pool towels available. I'm not sure if it was a lack of laundry facilities or a lack of towels. The pool was also very cool and not warm enough for this Floridian.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r253998607-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253998607</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>Good Clean Hotel</t>
+  </si>
+  <si>
+    <t>My mom was in town for a short stay and I put her up at this hotel.  I was pleasantly surprised to see how clean and spacious it was.  Really nothing to complain about, breakfast was good the people were very friendly.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r249370280-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249370280</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Moises' Kitchen</t>
+  </si>
+  <si>
+    <t>In all of my business travels these past 30 years, I have rarely experienced such a wonderful place.  The morning breakfasts and the after work receptions put together by Moises and the Residence Inn staff is wonderful.  Very attentive to cleanliness, service, and the small details that elude most service providers.  Smiling faces and service makes for a wonderful experience.  Thank you Moises and Residence Inn.  Keep up the great work!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r241575431-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241575431</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>Prefect stay</t>
+  </si>
+  <si>
+    <t>The hotel was extremely clean. Great smell as soon as I walked in.  When I checked in I was extremely overwhelmed with the long trip and four kids in the back seat.  The front desk person who checked me was very quick, but still polite.  I guess she could read my face and know I was just ready to get to my room.  The breakfast was prefect loved the fact that they had soda in the morning. I am not a soda drinking but that was a first that I've seen in any hotel with out a restaurant on site.  The breakfast attend was friendly along with the front desk attended who checked me out. Housekeeping actually spoke to me while in the halls.  All in all i had a great weekend. Room was large and had all the items that I needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>The hotel was extremely clean. Great smell as soon as I walked in.  When I checked in I was extremely overwhelmed with the long trip and four kids in the back seat.  The front desk person who checked me was very quick, but still polite.  I guess she could read my face and know I was just ready to get to my room.  The breakfast was prefect loved the fact that they had soda in the morning. I am not a soda drinking but that was a first that I've seen in any hotel with out a restaurant on site.  The breakfast attend was friendly along with the front desk attended who checked me out. Housekeeping actually spoke to me while in the halls.  All in all i had a great weekend. Room was large and had all the items that I needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r224884489-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224884489</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Salt Lick Breakfast</t>
+  </si>
+  <si>
+    <t>I opted to stay here due to a sell out this week at the Energy Corridor Marriott.  I found this to be a small, well maintained facility.  The room was nice, complete with a small kitchen, living room and king size bed.  Due to my schedule I never used the kitchen or living room area.  The large screen TV was bigger than you find in most hotels.  The gym room was much bigger than the availability of equipment.  There were four treadmills and a basic rack of weights.  The free breakfast had enough variety for everyone however the eggs each morning were way over salted.  If I were a deer I might have appreciated the slack lick experience.  Also the staff did not keep pace with replenishment of food so you might not get what you want each morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Juli A, Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2014</t>
+  </si>
+  <si>
+    <t>I opted to stay here due to a sell out this week at the Energy Corridor Marriott.  I found this to be a small, well maintained facility.  The room was nice, complete with a small kitchen, living room and king size bed.  Due to my schedule I never used the kitchen or living room area.  The large screen TV was bigger than you find in most hotels.  The gym room was much bigger than the availability of equipment.  There were four treadmills and a basic rack of weights.  The free breakfast had enough variety for everyone however the eggs each morning were way over salted.  If I were a deer I might have appreciated the slack lick experience.  Also the staff did not keep pace with replenishment of food so you might not get what you want each morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r222222266-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222222266</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Fantastic service, great place for long term stay</t>
+  </si>
+  <si>
+    <t>The rooms are incredibly clean, roomy and well appointed. The staff was so friendly, every day.  From the front desk clerk, Montrell (always super cooperarive - going out of his way to help) and the kitchen help, I think his name was Jose, made  my day every morning with his cheerfulness and warm welcome,The bed was very comfortable and the hotel is quiet at night.  Great for a good night's rest after a long day.I stayed there for a total of about 5 weeks and would definitely recommend the Residence Inn highly.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r216806991-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216806991</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Absolutely great service and great stay!</t>
+  </si>
+  <si>
+    <t>Needed a place to stay during my son's freshman orientation for college.  Residence Inn Houston I-10 West/Barker Cypress was recommended by family.  We stayed two nights and it was absolutely awesome.  The staff is so friendly!  The rooms are beautiful, comfy and clean!  The breakfast was awesome!  I could go on and on.  I told my husband that whenever we go visit our son in college, this is where we will always stay.  Absolutely loved it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r212175570-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212175570</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Front Desk Agent</t>
+  </si>
+  <si>
+    <t>I literally live in hotels 4-5 days a week and this is my first reviewing a hotel. In consideration of other important factors that makes stay in a hotel accommodating, I just want to take my hats off to the gentleman at the front desk agent, Montrell M. He went out of his way to make me and my family feel at home. Exceptional reception and speedy response to any query with courtesy and respect. Most front desk agents do NOT understand that they are the key to heart of a customer but Montrell M does. As a result we extended our stay and i recommend this clean neat environment to anyone travelling to the houston area. Richmond A.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I literally live in hotels 4-5 days a week and this is my first reviewing a hotel. In consideration of other important factors that makes stay in a hotel accommodating, I just want to take my hats off to the gentleman at the front desk agent, Montrell M. He went out of his way to make me and my family feel at home. Exceptional reception and speedy response to any query with courtesy and respect. Most front desk agents do NOT understand that they are the key to heart of a customer but Montrell M does. As a result we extended our stay and i recommend this clean neat environment to anyone travelling to the houston area. Richmond A.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r211928178-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211928178</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Foul language is a deterrent</t>
+  </si>
+  <si>
+    <t>Id like to start off by stating that the appearance of the hotel is terrific. Very clean and professional, most of the staff always seemed cheerful and helpful. For example we needed an extra pillow for my  bad back and when I called the desk the young lady who answered was very cheerful and basically ran me up the pillow with in a matter of minutes. Breakfast was amazing!! so was the evening reception.. my only issue I had was with one of the employees at the registration counter. It seemed every time I passed the counter to leave she was screaming foul language at someone on her phone. Now I understand people get upset but the way her and the gentleman on the phone were conversing it was very unprofessional. After hearing it multiple times during my stay I finally asked her if she felt like it was appropriate for her to be speaking like that with guests in the lobby. She grabbed her phone told the person she talking to hold on and walked away from me. VERY RUDE!!! I have stayed at many hotels in my time and I have never had to listen to such indecency and been treated with such disrespect. I honestly don't understand how she can treat guests this way and continue to be employed. Furthermore later that evening as I was headed out I stopped at the counter and nearly waited for...Id like to start off by stating that the appearance of the hotel is terrific. Very clean and professional, most of the staff always seemed cheerful and helpful. For example we needed an extra pillow for my  bad back and when I called the desk the young lady who answered was very cheerful and basically ran me up the pillow with in a matter of minutes. Breakfast was amazing!! so was the evening reception.. my only issue I had was with one of the employees at the registration counter. It seemed every time I passed the counter to leave she was screaming foul language at someone on her phone. Now I understand people get upset but the way her and the gentleman on the phone were conversing it was very unprofessional. After hearing it multiple times during my stay I finally asked her if she felt like it was appropriate for her to be speaking like that with guests in the lobby. She grabbed her phone told the person she talking to hold on and walked away from me. VERY RUDE!!! I have stayed at many hotels in my time and I have never had to listen to such indecency and been treated with such disrespect. I honestly don't understand how she can treat guests this way and continue to be employed. Furthermore later that evening as I was headed out I stopped at the counter and nearly waited for 20 minutes with no one  ever attending to me. I walked outside and there she was yelling on her phone again by the front door with food bag in hand. When I approached her asking if there was a manager on duty she rolled her eyes at me and said  no then turned and continued yelling at the person on her phone. I'm sorry to say but after this I wont be returning to this establishment as long as they allow employees to treat their guests like this. Again besides the issues I had with this young lady, the hotels standards surpassed my expectations. Also I would like to add that the rest of the staff was exceptionally wonderful and that the other registration clerks were a delight and very helpful. I just wish the one young (cheerful) girl who originally helped me would have been the only person I had to deal with, would have made my stay a lot happier and would have earned this review a 5 star rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>Juli A, Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Id like to start off by stating that the appearance of the hotel is terrific. Very clean and professional, most of the staff always seemed cheerful and helpful. For example we needed an extra pillow for my  bad back and when I called the desk the young lady who answered was very cheerful and basically ran me up the pillow with in a matter of minutes. Breakfast was amazing!! so was the evening reception.. my only issue I had was with one of the employees at the registration counter. It seemed every time I passed the counter to leave she was screaming foul language at someone on her phone. Now I understand people get upset but the way her and the gentleman on the phone were conversing it was very unprofessional. After hearing it multiple times during my stay I finally asked her if she felt like it was appropriate for her to be speaking like that with guests in the lobby. She grabbed her phone told the person she talking to hold on and walked away from me. VERY RUDE!!! I have stayed at many hotels in my time and I have never had to listen to such indecency and been treated with such disrespect. I honestly don't understand how she can treat guests this way and continue to be employed. Furthermore later that evening as I was headed out I stopped at the counter and nearly waited for...Id like to start off by stating that the appearance of the hotel is terrific. Very clean and professional, most of the staff always seemed cheerful and helpful. For example we needed an extra pillow for my  bad back and when I called the desk the young lady who answered was very cheerful and basically ran me up the pillow with in a matter of minutes. Breakfast was amazing!! so was the evening reception.. my only issue I had was with one of the employees at the registration counter. It seemed every time I passed the counter to leave she was screaming foul language at someone on her phone. Now I understand people get upset but the way her and the gentleman on the phone were conversing it was very unprofessional. After hearing it multiple times during my stay I finally asked her if she felt like it was appropriate for her to be speaking like that with guests in the lobby. She grabbed her phone told the person she talking to hold on and walked away from me. VERY RUDE!!! I have stayed at many hotels in my time and I have never had to listen to such indecency and been treated with such disrespect. I honestly don't understand how she can treat guests this way and continue to be employed. Furthermore later that evening as I was headed out I stopped at the counter and nearly waited for 20 minutes with no one  ever attending to me. I walked outside and there she was yelling on her phone again by the front door with food bag in hand. When I approached her asking if there was a manager on duty she rolled her eyes at me and said  no then turned and continued yelling at the person on her phone. I'm sorry to say but after this I wont be returning to this establishment as long as they allow employees to treat their guests like this. Again besides the issues I had with this young lady, the hotels standards surpassed my expectations. Also I would like to add that the rest of the staff was exceptionally wonderful and that the other registration clerks were a delight and very helpful. I just wish the one young (cheerful) girl who originally helped me would have been the only person I had to deal with, would have made my stay a lot happier and would have earned this review a 5 star rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r211811744-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211811744</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>My husband, kids &amp; I stayed here on a quick business trip. The room was clean and smelled fresh. Beds were comfortable. Quiet hotel. A few times I heard the person in the room above us. I enjoyed this hotel very much and would stay again. I did not interact with the staff so I can't say if they are friendly or not :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r203715403-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203715403</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Security of personal information</t>
+  </si>
+  <si>
+    <t>First let me say that the rooms and the Hotel was a good place to stay.  Comfortable beds, and easy to get in and out of West Houston.  
+But, I was taken aback by the policies of the front desk the night I was checking in.  I travel quite a bit, and know the routine for checking in to most large / recognized chain of hotels.  So this property has me concerned, which I will not recommend this location to my peers or my team (or you), unless this policy has been corrected... but I am not going to take my chances
+Background:  I reserved a room at this location, trying to find new place to stay in West Houston since I will be visiting many clients in the area for the months ahead.  I arrived around 10pm to check in for my stay, and while checking in, I provided my Credit Card and displayed my Drivers License as per the norm.  What threw me for a loop was that the receptionist asked me to hand over my drivers license to her, thinking she wanted to verify if it was a real ID card.  But then she proceeded to take my Credit Card, and my Drivers License to the back office, without advising me, and then I heard her attempt to run a photocopying machine.  I called out and asked her to return my ID and my CC...  See, if...First let me say that the rooms and the Hotel was a good place to stay.  Comfortable beds, and easy to get in and out of West Houston.  But, I was taken aback by the policies of the front desk the night I was checking in.  I travel quite a bit, and know the routine for checking in to most large / recognized chain of hotels.  So this property has me concerned, which I will not recommend this location to my peers or my team (or you), unless this policy has been corrected... but I am not going to take my chancesBackground:  I reserved a room at this location, trying to find new place to stay in West Houston since I will be visiting many clients in the area for the months ahead.  I arrived around 10pm to check in for my stay, and while checking in, I provided my Credit Card and displayed my Drivers License as per the norm.  What threw me for a loop was that the receptionist asked me to hand over my drivers license to her, thinking she wanted to verify if it was a real ID card.  But then she proceeded to take my Credit Card, and my Drivers License to the back office, without advising me, and then I heard her attempt to run a photocopying machine.  I called out and asked her to return my ID and my CC...  See, if you have my CC, and My ID, and you copy the back of our Credit Cards, that is a huge breach of my information.   I asked why did she need to photocopy my CC, she gave no explanation, but she did say the copying of my ID card is for emergencies just in case police or fire need it... she even referred me to call corporate to validate the practice...  well, first time in my years of travel that a hotel copied my id card, let me stress... first time ever... Just saying I am now going to be monitoring my credit card.  Sorry for the bad review, but I wanted to warn the others just in case this may happen to them.   I agree with most of the positive reviews of the property, clean &amp; comfortable rooms, good location and such... but my confidence and trust has been violated by the actions of the front desk in collecting and preserving your information for potential fraud.MoreShow less</t>
+  </si>
+  <si>
+    <t>Juli A, Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded May 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2014</t>
+  </si>
+  <si>
+    <t>First let me say that the rooms and the Hotel was a good place to stay.  Comfortable beds, and easy to get in and out of West Houston.  
+But, I was taken aback by the policies of the front desk the night I was checking in.  I travel quite a bit, and know the routine for checking in to most large / recognized chain of hotels.  So this property has me concerned, which I will not recommend this location to my peers or my team (or you), unless this policy has been corrected... but I am not going to take my chances
+Background:  I reserved a room at this location, trying to find new place to stay in West Houston since I will be visiting many clients in the area for the months ahead.  I arrived around 10pm to check in for my stay, and while checking in, I provided my Credit Card and displayed my Drivers License as per the norm.  What threw me for a loop was that the receptionist asked me to hand over my drivers license to her, thinking she wanted to verify if it was a real ID card.  But then she proceeded to take my Credit Card, and my Drivers License to the back office, without advising me, and then I heard her attempt to run a photocopying machine.  I called out and asked her to return my ID and my CC...  See, if...First let me say that the rooms and the Hotel was a good place to stay.  Comfortable beds, and easy to get in and out of West Houston.  But, I was taken aback by the policies of the front desk the night I was checking in.  I travel quite a bit, and know the routine for checking in to most large / recognized chain of hotels.  So this property has me concerned, which I will not recommend this location to my peers or my team (or you), unless this policy has been corrected... but I am not going to take my chancesBackground:  I reserved a room at this location, trying to find new place to stay in West Houston since I will be visiting many clients in the area for the months ahead.  I arrived around 10pm to check in for my stay, and while checking in, I provided my Credit Card and displayed my Drivers License as per the norm.  What threw me for a loop was that the receptionist asked me to hand over my drivers license to her, thinking she wanted to verify if it was a real ID card.  But then she proceeded to take my Credit Card, and my Drivers License to the back office, without advising me, and then I heard her attempt to run a photocopying machine.  I called out and asked her to return my ID and my CC...  See, if you have my CC, and My ID, and you copy the back of our Credit Cards, that is a huge breach of my information.   I asked why did she need to photocopy my CC, she gave no explanation, but she did say the copying of my ID card is for emergencies just in case police or fire need it... she even referred me to call corporate to validate the practice...  well, first time in my years of travel that a hotel copied my id card, let me stress... first time ever... Just saying I am now going to be monitoring my credit card.  Sorry for the bad review, but I wanted to warn the others just in case this may happen to them.   I agree with most of the positive reviews of the property, clean &amp; comfortable rooms, good location and such... but my confidence and trust has been violated by the actions of the front desk in collecting and preserving your information for potential fraud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r198175916-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198175916</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>A great place to stay in far west Houston</t>
+  </si>
+  <si>
+    <t>There is usually little need to evaluate the extended stay and business traveler hotels that populate the Interstates as they are often indistinguishable from one another, but this Residence Inn deserves a special mention.  Located at the western edge of Houston's Energy Corridor and across from the Texas Medical Center's West Campus, this hotel is perfect for a lengthy stay (in our case, twenty-five days) or even a night or two.  It is a relatively new facility and it incorporates significant upgrades from other Residence Inns where my wife and I have stayed.  For example, the beds are "kings" rather than "queens"; the suites while smaller in size are efficiently designed and furnished, and consequently more comfortable; the lobby / breakfast area is better laid out and very inviting; and while there is no "sport court," the fitness center is larger and more fully equipped than comparable hotels.  The hotel provides a daily breakfast that is pretty standard, but does feature a rotation of special items, and on Monday-Thursday evenings offers a free happy hour and a half with food that often will suffice for dinner.  Perhaps best of all, we found the staff to be uniformly friendly and helpful.  Note: a prior reviewer complained about cooking smells and we also experienced them on a couple of evenings, but thought that was a good reflection on the hotel.  Our stay coincided with three or four month stays by employees of...There is usually little need to evaluate the extended stay and business traveler hotels that populate the Interstates as they are often indistinguishable from one another, but this Residence Inn deserves a special mention.  Located at the western edge of Houston's Energy Corridor and across from the Texas Medical Center's West Campus, this hotel is perfect for a lengthy stay (in our case, twenty-five days) or even a night or two.  It is a relatively new facility and it incorporates significant upgrades from other Residence Inns where my wife and I have stayed.  For example, the beds are "kings" rather than "queens"; the suites while smaller in size are efficiently designed and furnished, and consequently more comfortable; the lobby / breakfast area is better laid out and very inviting; and while there is no "sport court," the fitness center is larger and more fully equipped than comparable hotels.  The hotel provides a daily breakfast that is pretty standard, but does feature a rotation of special items, and on Monday-Thursday evenings offers a free happy hour and a half with food that often will suffice for dinner.  Perhaps best of all, we found the staff to be uniformly friendly and helpful.  Note: a prior reviewer complained about cooking smells and we also experienced them on a couple of evenings, but thought that was a good reflection on the hotel.  Our stay coincided with three or four month stays by employees of an international oilfield products and services company headquartered nearby, most of whom came from half way around the globe and some of whom had their families with them.  The fact that they regularly were able to prepare their native cuisine says a lot about the usefulness of the kitchens and the kitchen equipment in the hotel's suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>There is usually little need to evaluate the extended stay and business traveler hotels that populate the Interstates as they are often indistinguishable from one another, but this Residence Inn deserves a special mention.  Located at the western edge of Houston's Energy Corridor and across from the Texas Medical Center's West Campus, this hotel is perfect for a lengthy stay (in our case, twenty-five days) or even a night or two.  It is a relatively new facility and it incorporates significant upgrades from other Residence Inns where my wife and I have stayed.  For example, the beds are "kings" rather than "queens"; the suites while smaller in size are efficiently designed and furnished, and consequently more comfortable; the lobby / breakfast area is better laid out and very inviting; and while there is no "sport court," the fitness center is larger and more fully equipped than comparable hotels.  The hotel provides a daily breakfast that is pretty standard, but does feature a rotation of special items, and on Monday-Thursday evenings offers a free happy hour and a half with food that often will suffice for dinner.  Perhaps best of all, we found the staff to be uniformly friendly and helpful.  Note: a prior reviewer complained about cooking smells and we also experienced them on a couple of evenings, but thought that was a good reflection on the hotel.  Our stay coincided with three or four month stays by employees of...There is usually little need to evaluate the extended stay and business traveler hotels that populate the Interstates as they are often indistinguishable from one another, but this Residence Inn deserves a special mention.  Located at the western edge of Houston's Energy Corridor and across from the Texas Medical Center's West Campus, this hotel is perfect for a lengthy stay (in our case, twenty-five days) or even a night or two.  It is a relatively new facility and it incorporates significant upgrades from other Residence Inns where my wife and I have stayed.  For example, the beds are "kings" rather than "queens"; the suites while smaller in size are efficiently designed and furnished, and consequently more comfortable; the lobby / breakfast area is better laid out and very inviting; and while there is no "sport court," the fitness center is larger and more fully equipped than comparable hotels.  The hotel provides a daily breakfast that is pretty standard, but does feature a rotation of special items, and on Monday-Thursday evenings offers a free happy hour and a half with food that often will suffice for dinner.  Perhaps best of all, we found the staff to be uniformly friendly and helpful.  Note: a prior reviewer complained about cooking smells and we also experienced them on a couple of evenings, but thought that was a good reflection on the hotel.  Our stay coincided with three or four month stays by employees of an international oilfield products and services company headquartered nearby, most of whom came from half way around the globe and some of whom had their families with them.  The fact that they regularly were able to prepare their native cuisine says a lot about the usefulness of the kitchens and the kitchen equipment in the hotel's suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r197592491-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197592491</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Solid West Side Houston</t>
+  </si>
+  <si>
+    <t>Newer Residence Inn just off IH 10 West in the Energy Corridor. All the standard beels and whistles of a new generation RI. Breakfast was pretty standard but good.  We were treated well and the staff was very knowledgable abouth the area.  Access is okay but you have to make a U-turn existing to get back to IH-10.  Definitely qualifies for  a repeat stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r194531749-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194531749</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>This is a great Houston Hotel</t>
+  </si>
+  <si>
+    <t>Enjoyed staying at this hotel over the last past 4 days.  Property is clean and newer.  There is ample parking and breakfast was great. There are also some fast food restaurants nearby. I would stay here again if I travel to Houston.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r188013997-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188013997</t>
+  </si>
+  <si>
+    <t>12/18/2013</t>
+  </si>
+  <si>
+    <t>Work trips</t>
+  </si>
+  <si>
+    <t>Brett BI have had the opportunity to stay at the Residence Inn at 1550 Barker Cypress Rd around 6 times now on business trips. I have 2 more trips planned for early in 2014 and am looking forward to my stay. Everything surrounding my stay here is top notch. The accommodations are extremly nice, and you are left wanting for nothing. They have internet connections for your rooms and work very hard at making your stay a very plesant experience.This is the only place that i stay when i come to Houston on business trips and would not hesitate to stay here on any personal trips with my family.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>David S, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Brett BI have had the opportunity to stay at the Residence Inn at 1550 Barker Cypress Rd around 6 times now on business trips. I have 2 more trips planned for early in 2014 and am looking forward to my stay. Everything surrounding my stay here is top notch. The accommodations are extremly nice, and you are left wanting for nothing. They have internet connections for your rooms and work very hard at making your stay a very plesant experience.This is the only place that i stay when i come to Houston on business trips and would not hesitate to stay here on any personal trips with my family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r172445845-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172445845</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Feels like an apartment. A modern day bed and breakfast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed there for a week and was extremely impressed! The room was clean and has the feel of a mini apartment. The area feels very secure. Breakfast and dinner included- although you have to go early because food goes by fast and they do not serve much more. Food is standard, like other hotels - nothing special. A lot of people studying in the lobby. I would recommend this hotel to families, business people, passing by, just passing by, etc. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r155803854-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155803854</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>Great place..Great Staff</t>
+  </si>
+  <si>
+    <t>I had a training event for some colleagues and Rodney was very helpful in setting up the room reservations as well as the conference room and catering for our event.  The staff there made sure the room was set up as we had discussed and made sure we had everything we needed.  I was impressed with the cleanliness of the hotel in general.  The catered food was excellent as well as the breakfast and happy hour freebies.  My whole group was impressed with the experience and our training event was a total success.  Good job Rodney and we would definitely return for another event.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>David S, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded April 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2013</t>
+  </si>
+  <si>
+    <t>I had a training event for some colleagues and Rodney was very helpful in setting up the room reservations as well as the conference room and catering for our event.  The staff there made sure the room was set up as we had discussed and made sure we had everything we needed.  I was impressed with the cleanliness of the hotel in general.  The catered food was excellent as well as the breakfast and happy hour freebies.  My whole group was impressed with the experience and our training event was a total success.  Good job Rodney and we would definitely return for another event.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r152669572-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152669572</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Outstanding place to Stay ... Great Location</t>
+  </si>
+  <si>
+    <t>I would highly recommend this hotel for business travelers and families. The facility is one of the best I've seen from the Residence Inn brand. The staff is extremely nice with a warm smile on every encounter and very helpful. I was staying on business and the location was perfectly located for us to visit multiple customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>I would highly recommend this hotel for business travelers and families. The facility is one of the best I've seen from the Residence Inn brand. The staff is extremely nice with a warm smile on every encounter and very helpful. I was staying on business and the location was perfectly located for us to visit multiple customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r149807092-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149807092</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>You really MUST stay here!</t>
+  </si>
+  <si>
+    <t>When I was planning my trip to Houston, I called another motel.  The experience was not good.  The desk staff couldn't even answer the phone properly, the sales staff never returned my calls or Emails, and there was a distinct lack of concern for my needs.  I needed to send them a check for my stay, but I was afraid they would lose it, so I finally decided that this was not the place to stay.
+When I called Marriott I-10, from the very moment that I called in, the experience was different.  The voice that answered was clear and I understood that I had gotten in touch with Marriott Residence Inn rather than wondering who or what it was that had answered the phone. I asked for the manager and within a minute,  Chris was on the phone with me.
+Chris is the consumate professional.  I think that Marriott is very fortunate to have him.  He answered all my questions and the way that he handed everything made me comfortable forwarding a large check to him for our stay.
+The arrival was a delight.  The motel is new.  Everything in it has been well kept in this first year of existence.  No smells, no dirty corners, nothing out of place.  Even the computers work well!  The excercise room was a pleasant surprise.  It has both exercise machines and free weights.
+All of the staff members, from the kitchen help...When I was planning my trip to Houston, I called another motel.  The experience was not good.  The desk staff couldn't even answer the phone properly, the sales staff never returned my calls or Emails, and there was a distinct lack of concern for my needs.  I needed to send them a check for my stay, but I was afraid they would lose it, so I finally decided that this was not the place to stay.When I called Marriott I-10, from the very moment that I called in, the experience was different.  The voice that answered was clear and I understood that I had gotten in touch with Marriott Residence Inn rather than wondering who or what it was that had answered the phone. I asked for the manager and within a minute,  Chris was on the phone with me.Chris is the consumate professional.  I think that Marriott is very fortunate to have him.  He answered all my questions and the way that he handed everything made me comfortable forwarding a large check to him for our stay.The arrival was a delight.  The motel is new.  Everything in it has been well kept in this first year of existence.  No smells, no dirty corners, nothing out of place.  Even the computers work well!  The excercise room was a pleasant surprise.  It has both exercise machines and free weights.All of the staff members, from the kitchen help right up to the front desk, are always smiling, pleasant, and always greet you.  The maids do a tremendous job on the rooms, and sometimes we left something of a mess for them.  The breakfast bar is nicely done and they work to provide a change and variety every morning.  I even like their coffee (I usually HATE motel coffee!).You will not do any better in Houston than this motel.  In addition, it is located nicely right off I-10, which is a main highway through the city area.  This made our navigation easy.  There are a number of shops and restaurants within close distance.Stay here!  You will love the people and love the motel!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>When I was planning my trip to Houston, I called another motel.  The experience was not good.  The desk staff couldn't even answer the phone properly, the sales staff never returned my calls or Emails, and there was a distinct lack of concern for my needs.  I needed to send them a check for my stay, but I was afraid they would lose it, so I finally decided that this was not the place to stay.
+When I called Marriott I-10, from the very moment that I called in, the experience was different.  The voice that answered was clear and I understood that I had gotten in touch with Marriott Residence Inn rather than wondering who or what it was that had answered the phone. I asked for the manager and within a minute,  Chris was on the phone with me.
+Chris is the consumate professional.  I think that Marriott is very fortunate to have him.  He answered all my questions and the way that he handed everything made me comfortable forwarding a large check to him for our stay.
+The arrival was a delight.  The motel is new.  Everything in it has been well kept in this first year of existence.  No smells, no dirty corners, nothing out of place.  Even the computers work well!  The excercise room was a pleasant surprise.  It has both exercise machines and free weights.
+All of the staff members, from the kitchen help...When I was planning my trip to Houston, I called another motel.  The experience was not good.  The desk staff couldn't even answer the phone properly, the sales staff never returned my calls or Emails, and there was a distinct lack of concern for my needs.  I needed to send them a check for my stay, but I was afraid they would lose it, so I finally decided that this was not the place to stay.When I called Marriott I-10, from the very moment that I called in, the experience was different.  The voice that answered was clear and I understood that I had gotten in touch with Marriott Residence Inn rather than wondering who or what it was that had answered the phone. I asked for the manager and within a minute,  Chris was on the phone with me.Chris is the consumate professional.  I think that Marriott is very fortunate to have him.  He answered all my questions and the way that he handed everything made me comfortable forwarding a large check to him for our stay.The arrival was a delight.  The motel is new.  Everything in it has been well kept in this first year of existence.  No smells, no dirty corners, nothing out of place.  Even the computers work well!  The excercise room was a pleasant surprise.  It has both exercise machines and free weights.All of the staff members, from the kitchen help right up to the front desk, are always smiling, pleasant, and always greet you.  The maids do a tremendous job on the rooms, and sometimes we left something of a mess for them.  The breakfast bar is nicely done and they work to provide a change and variety every morning.  I even like their coffee (I usually HATE motel coffee!).You will not do any better in Houston than this motel.  In addition, it is located nicely right off I-10, which is a main highway through the city area.  This made our navigation easy.  There are a number of shops and restaurants within close distance.Stay here!  You will love the people and love the motel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r145040729-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145040729</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>Omg it was excellent</t>
+  </si>
+  <si>
+    <t>Great stay! Everything was taken care of upon arrival. Friendly staff from front desk to maintenance.   Room was always clean and breakfast bar was wonderful.  I would most definitely recommend this hotel to anyone going that way.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded November 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2012</t>
+  </si>
+  <si>
+    <t>Great stay! Everything was taken care of upon arrival. Friendly staff from front desk to maintenance.   Room was always clean and breakfast bar was wonderful.  I would most definitely recommend this hotel to anyone going that way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r144409843-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144409843</t>
+  </si>
+  <si>
+    <t>11/03/2012</t>
+  </si>
+  <si>
+    <t>Fabulous accomodations and friendly staff</t>
+  </si>
+  <si>
+    <t>Returned home today from a weeks stay at this Inn,wish I was back there,with the elegant, comfortable bed, and sectional couch with a supercomfortable pull out bed! Kitchen that is fully stocked with dishes ,pots and pans silverware everything you need to prepare a great meal, although to be honest we never needed due to the full breakfast bar with everything you could want to eat for breakfast from super healthy choices to waffles,bacon sausage you name it they have it. During the week they have socials with food and drinks free! The staff from managers,sales directors front desk personnel ,maintenance and houskeepers number one mission is your satisfaction ! Iwill definitely return to this hotel every time I am within 60 miles of it!It would be worth an hours drive to stay there,also a great pool and outside terraces with firepkace! Thankyou again to everyone at the hotel for making this a memorable stay for myself and friends!  JanMoreShow less</t>
+  </si>
+  <si>
+    <t>Returned home today from a weeks stay at this Inn,wish I was back there,with the elegant, comfortable bed, and sectional couch with a supercomfortable pull out bed! Kitchen that is fully stocked with dishes ,pots and pans silverware everything you need to prepare a great meal, although to be honest we never needed due to the full breakfast bar with everything you could want to eat for breakfast from super healthy choices to waffles,bacon sausage you name it they have it. During the week they have socials with food and drinks free! The staff from managers,sales directors front desk personnel ,maintenance and houskeepers number one mission is your satisfaction ! Iwill definitely return to this hotel every time I am within 60 miles of it!It would be worth an hours drive to stay there,also a great pool and outside terraces with firepkace! Thankyou again to everyone at the hotel for making this a memorable stay for myself and friends!  JanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r144325605-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144325605</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>Great Amenities!</t>
+  </si>
+  <si>
+    <t>The staff was friendly, the rooms were clean and the exercise facilities were great.  Loved the breakfast too!  Great experience from the start - booking with Sales Director to Check in process to check out.  Everything went perfectly.  I would definitely stay there again and recommend them to others.  Sandy B.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was friendly, the rooms were clean and the exercise facilities were great.  Loved the breakfast too!  Great experience from the start - booking with Sales Director to Check in process to check out.  Everything went perfectly.  I would definitely stay there again and recommend them to others.  Sandy B.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r140026465-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140026465</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Stay here, you'll love it as much as we did!</t>
+  </si>
+  <si>
+    <t>My 94 year old father and I recently fled from being in the path of Hurricane Isaac to this wonderful property, where we felt like family.The staff was such a blessing to us, by helping us get settled and ensuring we were their family.  They constantly supported us as we worried about our home and our friends back home.  The staff was helpful, reassuring and caring.The property itself is gorgeous, and I have lived in apartments much smaller than my room.  Best of all, my cat was welcomed there with open arms!The location was great!  Just down the road was everything I could ever want.  I loved that we were so close to everything.  The on-site laundry room was cleaner than if I cleaned it myself.  Even though we were displaced for a week, it was more than a pleasure to stay at this lovely property with these caring, kind people. Thanks to everyone who helped us out!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>My 94 year old father and I recently fled from being in the path of Hurricane Isaac to this wonderful property, where we felt like family.The staff was such a blessing to us, by helping us get settled and ensuring we were their family.  They constantly supported us as we worried about our home and our friends back home.  The staff was helpful, reassuring and caring.The property itself is gorgeous, and I have lived in apartments much smaller than my room.  Best of all, my cat was welcomed there with open arms!The location was great!  Just down the road was everything I could ever want.  I loved that we were so close to everything.  The on-site laundry room was cleaner than if I cleaned it myself.  Even though we were displaced for a week, it was more than a pleasure to stay at this lovely property with these caring, kind people. Thanks to everyone who helped us out!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1756,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1788,3455 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>161</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>250</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>251</v>
+      </c>
+      <c r="X27" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s">
+        <v>291</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
+      </c>
+      <c r="J32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>297</v>
+      </c>
+      <c r="O32" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>303</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>309</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>312</v>
+      </c>
+      <c r="J35" t="s">
+        <v>313</v>
+      </c>
+      <c r="K35" t="s">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s">
+        <v>315</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>316</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>317</v>
+      </c>
+      <c r="X35" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>321</v>
+      </c>
+      <c r="J36" t="s">
+        <v>322</v>
+      </c>
+      <c r="K36" t="s">
+        <v>323</v>
+      </c>
+      <c r="L36" t="s">
+        <v>324</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>325</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>325</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>332</v>
+      </c>
+      <c r="J38" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" t="s">
+        <v>334</v>
+      </c>
+      <c r="L38" t="s">
+        <v>335</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>336</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>338</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>339</v>
+      </c>
+      <c r="J39" t="s">
+        <v>340</v>
+      </c>
+      <c r="K39" t="s">
+        <v>341</v>
+      </c>
+      <c r="L39" t="s">
+        <v>342</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>336</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>343</v>
+      </c>
+      <c r="X39" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>336</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" t="s">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s">
+        <v>354</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>316</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>355</v>
+      </c>
+      <c r="X41" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s">
+        <v>362</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>363</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>365</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>366</v>
+      </c>
+      <c r="J43" t="s">
+        <v>367</v>
+      </c>
+      <c r="K43" t="s">
+        <v>368</v>
+      </c>
+      <c r="L43" t="s">
+        <v>369</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>363</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>375</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" t="s">
+        <v>378</v>
+      </c>
+      <c r="K45" t="s">
+        <v>379</v>
+      </c>
+      <c r="L45" t="s">
+        <v>380</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>381</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>382</v>
+      </c>
+      <c r="X45" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>386</v>
+      </c>
+      <c r="J46" t="s">
+        <v>387</v>
+      </c>
+      <c r="K46" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>391</v>
+      </c>
+      <c r="J47" t="s">
+        <v>392</v>
+      </c>
+      <c r="K47" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>404</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>405</v>
+      </c>
+      <c r="X48" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>408</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>409</v>
+      </c>
+      <c r="J49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K49" t="s">
+        <v>411</v>
+      </c>
+      <c r="L49" t="s">
+        <v>412</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>413</v>
+      </c>
+      <c r="O49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>422</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>423</v>
+      </c>
+      <c r="X50" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>426</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>427</v>
+      </c>
+      <c r="J51" t="s">
+        <v>428</v>
+      </c>
+      <c r="K51" t="s">
+        <v>429</v>
+      </c>
+      <c r="L51" t="s">
+        <v>430</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>422</v>
+      </c>
+      <c r="O51" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>423</v>
+      </c>
+      <c r="X51" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>432</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>433</v>
+      </c>
+      <c r="J52" t="s">
+        <v>434</v>
+      </c>
+      <c r="K52" t="s">
+        <v>435</v>
+      </c>
+      <c r="L52" t="s">
+        <v>436</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>422</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>423</v>
+      </c>
+      <c r="X52" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" t="s">
+        <v>440</v>
+      </c>
+      <c r="K53" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s">
+        <v>442</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>443</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_540.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="696">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r586812588-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>3191802</t>
+  </si>
+  <si>
+    <t>586812588</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Every Marriott property needs staff like this hotel</t>
+  </si>
+  <si>
+    <t>Best customer service have ever had at a Marriott property! Not enough room to truly express how remarkable every employee here is. They all know who you are, but more importantly, CARE who you are. They go above and beyond to make sure you are comfortable and they do whatever it takes to make you happy, keep you happy and make a difference in your day! I was honestly sad to leave...but will definitely be back! The GM, Marco, was ever present (not common at all in most places),. The AGM, Jasmine...oh my, not enough words...what a doll! Norah, Sam, Housekeeping, Security...al of them...they JUST CARE! The rooms were clean, the lobby clean and inviting, laundry room was clean.... a VERY SMALL example: during the last 15 mins or so of the 'Happy Hour' reception they have every Mon-Wed evenings one night, a guest asked if they had any more of a specific kind of wine...rather than saying 'No, we are all out of that one', one of the staff members disappeared for a few minutes and returned with that wine. She literally had left and gone to the liquor store to get it! I don't even drink wine, but I was certainly impressed when I saw that! Again, that is just one very tiny example. Multiply that small gesture by 100 and you might get an idea of how special this staff is!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Best customer service have ever had at a Marriott property! Not enough room to truly express how remarkable every employee here is. They all know who you are, but more importantly, CARE who you are. They go above and beyond to make sure you are comfortable and they do whatever it takes to make you happy, keep you happy and make a difference in your day! I was honestly sad to leave...but will definitely be back! The GM, Marco, was ever present (not common at all in most places),. The AGM, Jasmine...oh my, not enough words...what a doll! Norah, Sam, Housekeeping, Security...al of them...they JUST CARE! The rooms were clean, the lobby clean and inviting, laundry room was clean.... a VERY SMALL example: during the last 15 mins or so of the 'Happy Hour' reception they have every Mon-Wed evenings one night, a guest asked if they had any more of a specific kind of wine...rather than saying 'No, we are all out of that one', one of the staff members disappeared for a few minutes and returned with that wine. She literally had left and gone to the liquor store to get it! I don't even drink wine, but I was certainly impressed when I saw that! Again, that is just one very tiny example. Multiply that small gesture by 100 and you might get an idea of how special this staff is!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r583663199-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583663199</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Very friendly staff always makes you feel welcome. Noor at the front desk was always attentive to the guests' needs.  Rooms are clean.  Social hour was great as well with a very friendly helpful hostess. The folks in the kitchen and dining room were friendly and helpful, making fresh hot food in a clean environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Very friendly staff always makes you feel welcome. Noor at the front desk was always attentive to the guests' needs.  Rooms are clean.  Social hour was great as well with a very friendly helpful hostess. The folks in the kitchen and dining room were friendly and helpful, making fresh hot food in a clean environment.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r581044202-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>3191802</t>
-  </si>
-  <si>
     <t>581044202</t>
   </si>
   <si>
@@ -174,18 +231,9 @@
     <t>My experience at this location was fantastic. The front desk staff and housekeeping was patient, helpful and really friendly. He property is well kept and clean. I would definitely recommend staying here!MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded May 30, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 30, 2018</t>
-  </si>
-  <si>
     <t>My experience at this location was fantastic. The front desk staff and housekeeping was patient, helpful and really friendly. He property is well kept and clean. I would definitely recommend staying here!More</t>
   </si>
   <si>
@@ -234,9 +282,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded April 3, 2018</t>
   </si>
   <si>
@@ -246,6 +291,51 @@
     <t>Good and recommended place to stay in Houston. Good Peoples are at front desk with always happy to assist you. Clean, comfortable rooms and an excellent breakfast. Overall Nice place to stay. Thank you.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r568549905-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568549905</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel for busines people to stay</t>
+  </si>
+  <si>
+    <t>I checked in . Everything was smooth. Miss Nataly B. was total professional. I what ever help I need Miss Nataly B. took care. Very rarely I saw this kind of smooth service. Room I stayed was great for a working person. Large desk to work and nice size room and all the receptacles you need. It is well designed.Only think I mention to management that was no sugar free syrup for the waffle and lack ofMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I checked in . Everything was smooth. Miss Nataly B. was total professional. I what ever help I need Miss Nataly B. took care. Very rarely I saw this kind of smooth service. Room I stayed was great for a working person. Large desk to work and nice size room and all the receptacles you need. It is well designed.Only think I mention to management that was no sugar free syrup for the waffle and lack ofMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r563059132-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563059132</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>I do not normally stay at hotels in Houston because I live in Katy. Due to unfortunate circumstances my wife and I found ourselves in need of a place to stay after our apt flooded. After being up al night we were both tired and just wanted somewhere to place our heads. Fortunately; Noor at the front desk was a warm friendly face that empathized with our situation and got us into a room immediately and made sure got a room at 8 in the morning. She not only found us a room but made us feel at home in a rather unpleasant situation. Thank you Noor for personalize 5he experience for my wife and I.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>I do not normally stay at hotels in Houston because I live in Katy. Due to unfortunate circumstances my wife and I found ourselves in need of a place to stay after our apt flooded. After being up al night we were both tired and just wanted somewhere to place our heads. Fortunately; Noor at the front desk was a warm friendly face that empathized with our situation and got us into a room immediately and made sure got a room at 8 in the morning. She not only found us a room but made us feel at home in a rather unpleasant situation. Thank you Noor for personalize 5he experience for my wife and I.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r560531939-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -321,6 +411,60 @@
     <t>My company booked this lodging, and I must say, so glad they did. We had business in the state and this hotel was very attentive to our special needs. The staff is what made all the difference. Greatly appreciated the relaxed atmosphere (most of time), even with that early morning "wake-up" day. I highly recommend this establishment for all travelers.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r520601312-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520601312</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey evacuation</t>
+  </si>
+  <si>
+    <t>Impossible to convey the awesomeness of the staff and friends of staff that attended to hotel guests and others people forced out of their homes nearby. Even having to deal disaster related issues, the stay was very comforting. Breakfast was great every day; hot snacks and dinner were available each night. My wife, 2 kids and I always felt safe and cared for during entire stay (M-F). In addition to the entire staff, I want to extend a special sincere thanks to Ray. He was helping anyone and everyone in need and always greeted us with smile and kind words. Biggest thanks to an incredible group of people who made our lives better in a true time of need! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Impossible to convey the awesomeness of the staff and friends of staff that attended to hotel guests and others people forced out of their homes nearby. Even having to deal disaster related issues, the stay was very comforting. Breakfast was great every day; hot snacks and dinner were available each night. My wife, 2 kids and I always felt safe and cared for during entire stay (M-F). In addition to the entire staff, I want to extend a special sincere thanks to Ray. He was helping anyone and everyone in need and always greeted us with smile and kind words. Biggest thanks to an incredible group of people who made our lives better in a true time of need! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r500876863-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500876863</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>My husband had training nearby on Park Row for a week, so I took the week off and my daughter and I stayed with him.  This hotel was top notch.  The rooms and common areas are very clean, the staff is polite and friendly and the breakfast was enjoyable.  If we ever have to spend time in that area again I will not hesitate to use the same hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>My husband had training nearby on Park Row for a week, so I took the week off and my daughter and I stayed with him.  This hotel was top notch.  The rooms and common areas are very clean, the staff is polite and friendly and the breakfast was enjoyable.  If we ever have to spend time in that area again I will not hesitate to use the same hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r496577435-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -336,9 +480,6 @@
     <t>checked into the residence inn on Barker Cypress, had a great experience.  the room's rate were very affordable and upon arrival the rooms were more than what i expected.  the bed was very comfortable the rooms were big and clean.  the staff at the hotel were very friendly and welcoming.  breakfast was good and plenty available.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -384,6 +525,39 @@
     <t>I spent the weekend at the residence inn. The staff was friendly as soon as we walked in the door. They had a good breakfast variety which included gluten free items for those who need it. Great amenities which include a pool, exercise room, gas grill and business center. Good location. I would repeat if I were in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r496216014-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496216014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The staff was very nice and helpful with any questions I had. The breakfast selection was really goodwith lots of options. The amenities were well kept and clean. My friends and I utilized the pool area and gym, which were very well maintained during the week we stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was very nice and helpful with any questions I had. The breakfast selection was really goodwith lots of options. The amenities were well kept and clean. My friends and I utilized the pool area and gym, which were very well maintained during the week we stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r495902412-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495902412</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Hotel and rooms were clean. Hotel staff was friendly and helpful. Would definitely stay again. The breakfast was a plus. The pool was also very clean. Location was near many good restaurants and right near Top Golf. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel and rooms were clean. Hotel staff was friendly and helpful. Would definitely stay again. The breakfast was a plus. The pool was also very clean. Location was near many good restaurants and right near Top Golf. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r489721883-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -456,6 +630,60 @@
     <t>Traveling across Country my husband and I stopped here for a night after driving for over 16 hours.  The hotel staff was very nice.  The rooms are very clean and spacious.  There is a lot of room for parking. Breakfast is free and served from 6-9am. Wish we could have stayed longer. If we are ever in the area again we will be staying at this location.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r468658267-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468658267</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best service </t>
+  </si>
+  <si>
+    <t>I stay at this hotel whoever I am in Houston . Top notch facility and staff . I specially want to point out Michael , Noor and Anthony . Easily accessible from I-10 . Breakfasts and socials are excellent .MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>I stay at this hotel whoever I am in Houston . Top notch facility and staff . I specially want to point out Michael , Noor and Anthony . Easily accessible from I-10 . Breakfasts and socials are excellent .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r463773827-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463773827</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn</t>
+  </si>
+  <si>
+    <t>The Good: Upgraded room for free, without asking for it.  Big TV in living room.  Plenty of drawers for storage. Grab bar in shower, plenty of hot water and non-slip surface in bathtub.  Common areas very nice, good food, clean. The Bad: Noisy HVAC, noisy neighbors. Couch was like a Whoopie Cushion everytime we sat on it. Throw pillows coming unsewn and unstuffed. No liquid dish soap, only soap for the dishwasher.  Carpet unraveling in several places. This chain seems to have the same dark orange paint in the kitchen making it very dark, even with all the lights on. The Ugly: Every time we lifted the lid on the toilet, it smelled awful, like sewer gases.  No we did not complain, we just lived with it.Overall: This is a good hotel for the money, but given how new this hotel is, the rooms are already becoming tired and need some updating. Housekeeping was very good, breakfast attendants very good, although on the weekend they seemed to be having trouble keeping up with the cooked buffet items.  Better during the week. Would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>The Good: Upgraded room for free, without asking for it.  Big TV in living room.  Plenty of drawers for storage. Grab bar in shower, plenty of hot water and non-slip surface in bathtub.  Common areas very nice, good food, clean. The Bad: Noisy HVAC, noisy neighbors. Couch was like a Whoopie Cushion everytime we sat on it. Throw pillows coming unsewn and unstuffed. No liquid dish soap, only soap for the dishwasher.  Carpet unraveling in several places. This chain seems to have the same dark orange paint in the kitchen making it very dark, even with all the lights on. The Ugly: Every time we lifted the lid on the toilet, it smelled awful, like sewer gases.  No we did not complain, we just lived with it.Overall: This is a good hotel for the money, but given how new this hotel is, the rooms are already becoming tired and need some updating. Housekeeping was very good, breakfast attendants very good, although on the weekend they seemed to be having trouble keeping up with the cooked buffet items.  Better during the week. Would recommend this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r462983218-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -471,15 +699,6 @@
     <t>Really enjoyed my stay here, the room was more then what I expected. Even though my stay was only for one night I would definitely come again! The breakfast was good as well, I was running late and they gave me a to go plate so I could be in my way! Great place overall MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
-    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded March 2, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 2, 2017</t>
-  </si>
-  <si>
     <t>Really enjoyed my stay here, the room was more then what I expected. Even though my stay was only for one night I would definitely come again! The breakfast was good as well, I was running late and they gave me a to go plate so I could be in my way! Great place overall More</t>
   </si>
   <si>
@@ -525,6 +744,51 @@
     <t>We stayed at the Residence Inn for three days visiting family. It was an excellent experience! The staff was friendly and incredibly accommodating. We were a little late for breakfast but their staff served us anyway. Moises went out of his way to serve us eggs and sausage! The general manager, Mark was very professional and took great care of us. He does an excellent job maintaining the hotel. The location is close to Katy and not too far from downtown, which was exactly what we needed for our stay. Our doggies loved their room too! We will definitely be back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r460517771-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460517771</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I arrived on the Super Bowl Sunday for business on the Monday.The staff we really friendly and made me feel welcome.They have a good gym area - for those of us so inclined!Breakfast and dinner are both enjoyable and offer a decent value for money.The menu is limited but what they have is really good.Houston is a big city so make sure you choose the hotel that is situated close to where you need to be otherwise you have long commutes!MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived on the Super Bowl Sunday for business on the Monday.The staff we really friendly and made me feel welcome.They have a good gym area - for those of us so inclined!Breakfast and dinner are both enjoyable and offer a decent value for money.The menu is limited but what they have is really good.Houston is a big city so make sure you choose the hotel that is situated close to where you need to be otherwise you have long commutes!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r452405945-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452405945</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>"Enjoying my stay"!</t>
+  </si>
+  <si>
+    <t>Great service and nice gym. I travel to Houston every week for work and so far so good at this hotel. The staff always pleasant and the rooms are CLEAN. The location is close to my job, plenty of parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Great service and nice gym. I travel to Houston every week for work and so far so good at this hotel. The staff always pleasant and the rooms are CLEAN. The location is close to my job, plenty of parking.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r448206364-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -540,12 +804,6 @@
     <t>It was a great hotel especially for a long term. They definitely took good care of us. I think the best part was the staff. They were very friendly and helpful. I think I got to talk to almost every single one of the employees at the front desk, and they were so great. Also, housekeeping ladies, maintenance guys, the old man in the kitchen, and definitely security guy at night--they were all amazing! I really appreciate all their work they did for us.Our favorite staff members were:Johana (not sure if I spelled correctly), amazing housekeeping lady with nice smile all the time!David, thanks for inviting us to the mixer from the moment we checked in. We felt very welcome.Lastly, I never got the name, but the gentleman in the kitchen who prepares amazing breakfast! Thank you for feeding us so well with fresh and delicious food every morning!If you're considering staying here for a long term,-A room by an exit/elevator cannot avoid from outside or hallway.-Laundry room is located on the second floor, and each washer/dryer costs only a dollar.-At breakfast, hot dishes (e.g., eggs, sausage) are the same almost every day.-There's a security guy at night, if that makes you feel safer. :)MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded January 3, 2017</t>
   </si>
   <si>
@@ -609,6 +867,63 @@
     <t>Hotel was very nice and staff was beyond excellant.  Helpful in every way, room was hugh, will stay again in nov when i go back for business trip!  Breakfast was good, got a kick out of pepperoni made for breakfast, but was suprisingly a great item paid with eggs.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r412882314-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412882314</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>We’re Here to Stay!</t>
+  </si>
+  <si>
+    <t>I cannot say enough good things about our stay at the Residence Inn 1-10 West/Barker Cypress but I can certainly recommend it to anyone looking for a tremendous value and experience. 
+We have a home just outside Houston but park ourselves near the Katy Freeway for two weeks each year when we host a number of business meetings in and around the Galleria and want to save time and road stress. We found this hotel by way of the online reviews and were not disappointed. The staff from the top (GM Marco) down were most impressive. Everyone bent over backwards to make us feel welcome. And every employee was cheerful and accommodating. We found the hotel housekeeping staff to be especially friendly and attentive. 
+We stayed in an upper level studio and enjoyed the peace and quiet. Our room was clean, well kept and appointed. The bed and seating throughout our room was very comfortable. 
+My only recommendation for the room would be better lighting in the bathroom and vanity area. I had to apply my makeup next to the big window by the bed as the lighting was pretty dim in those areas (to me). Fortunately if it’s sunny outdoors you can open the draperies and the room will be bathed in light, which helps a lot. And clearly, this won’t be an issue for gentlemen. Another small beef of ours was that the breakfast buffet could be improved....I cannot say enough good things about our stay at the Residence Inn 1-10 West/Barker Cypress but I can certainly recommend it to anyone looking for a tremendous value and experience. We have a home just outside Houston but park ourselves near the Katy Freeway for two weeks each year when we host a number of business meetings in and around the Galleria and want to save time and road stress. We found this hotel by way of the online reviews and were not disappointed. The staff from the top (GM Marco) down were most impressive. Everyone bent over backwards to make us feel welcome. And every employee was cheerful and accommodating. We found the hotel housekeeping staff to be especially friendly and attentive. We stayed in an upper level studio and enjoyed the peace and quiet. Our room was clean, well kept and appointed. The bed and seating throughout our room was very comfortable. My only recommendation for the room would be better lighting in the bathroom and vanity area. I had to apply my makeup next to the big window by the bed as the lighting was pretty dim in those areas (to me). Fortunately if it’s sunny outdoors you can open the draperies and the room will be bathed in light, which helps a lot. And clearly, this won’t be an issue for gentlemen. Another small beef of ours was that the breakfast buffet could be improved. For the most part the hot choices were limited (didn’t always offer a meat side with eggs) and we often found it to be cooler than hot. However, we quickly remedied the situation by way of a quick blast in the microwave. And we did arrive on the late sides most days. Other than those two minor points that won’t prevent us from booking this hotel annually, the location next to I-10 and its close proximity to grocery stores and convenience shops is ideal. Thank you Marriott and Residence Inn 1-10 West/Barker Cypress. You’ve got “staying power!”MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>I cannot say enough good things about our stay at the Residence Inn 1-10 West/Barker Cypress but I can certainly recommend it to anyone looking for a tremendous value and experience. 
+We have a home just outside Houston but park ourselves near the Katy Freeway for two weeks each year when we host a number of business meetings in and around the Galleria and want to save time and road stress. We found this hotel by way of the online reviews and were not disappointed. The staff from the top (GM Marco) down were most impressive. Everyone bent over backwards to make us feel welcome. And every employee was cheerful and accommodating. We found the hotel housekeeping staff to be especially friendly and attentive. 
+We stayed in an upper level studio and enjoyed the peace and quiet. Our room was clean, well kept and appointed. The bed and seating throughout our room was very comfortable. 
+My only recommendation for the room would be better lighting in the bathroom and vanity area. I had to apply my makeup next to the big window by the bed as the lighting was pretty dim in those areas (to me). Fortunately if it’s sunny outdoors you can open the draperies and the room will be bathed in light, which helps a lot. And clearly, this won’t be an issue for gentlemen. Another small beef of ours was that the breakfast buffet could be improved....I cannot say enough good things about our stay at the Residence Inn 1-10 West/Barker Cypress but I can certainly recommend it to anyone looking for a tremendous value and experience. We have a home just outside Houston but park ourselves near the Katy Freeway for two weeks each year when we host a number of business meetings in and around the Galleria and want to save time and road stress. We found this hotel by way of the online reviews and were not disappointed. The staff from the top (GM Marco) down were most impressive. Everyone bent over backwards to make us feel welcome. And every employee was cheerful and accommodating. We found the hotel housekeeping staff to be especially friendly and attentive. We stayed in an upper level studio and enjoyed the peace and quiet. Our room was clean, well kept and appointed. The bed and seating throughout our room was very comfortable. My only recommendation for the room would be better lighting in the bathroom and vanity area. I had to apply my makeup next to the big window by the bed as the lighting was pretty dim in those areas (to me). Fortunately if it’s sunny outdoors you can open the draperies and the room will be bathed in light, which helps a lot. And clearly, this won’t be an issue for gentlemen. Another small beef of ours was that the breakfast buffet could be improved. For the most part the hot choices were limited (didn’t always offer a meat side with eggs) and we often found it to be cooler than hot. However, we quickly remedied the situation by way of a quick blast in the microwave. And we did arrive on the late sides most days. Other than those two minor points that won’t prevent us from booking this hotel annually, the location next to I-10 and its close proximity to grocery stores and convenience shops is ideal. Thank you Marriott and Residence Inn 1-10 West/Barker Cypress. You’ve got “staying power!”More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r392324784-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392324784</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable, clean, convenient </t>
+  </si>
+  <si>
+    <t>I like staying at this hotel when in town for business.  it's right next to the interstate, and close to a couple good restaurants. rooms are clean, and personnel is friendly. good place for a one night business stay to get a good night's sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>I like staying at this hotel when in town for business.  it's right next to the interstate, and close to a couple good restaurants. rooms are clean, and personnel is friendly. good place for a one night business stay to get a good night's sleep. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r379066306-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -678,6 +993,57 @@
     <t>Great little hotel they have an in door pool and Jacuzzi. Rooms are clean and fresh. We use it as a stop over hotel on our way to Central America. The people were nice and they had the normal smart little breakfast nook area. Good fresh  coffee and good people to help you and give instructions on how to get around to the local spots. They are close to a Kroger and several other places if you need to get a few things. This is one of the few hotels in the area that was open during and after the rain storm in Houston. It was about a twenty dollar or so uber ride from the IAH airport.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r358136934-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358136934</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Convinent to West Houston and Katy Area</t>
+  </si>
+  <si>
+    <t>This was our second stay at this hotel.  The first was for its close proximity to the Katy campus of Methodist Hospital (about 4 blocks).  The second, and most recent, was for pleasure and the hotel measured up both times.  The room on our first visit seemed larger but each room was of adequate size.  The rooms were clean, quiet, and comfortable.  The breakfast in the morning was typical and good.  Just as we stayed a second time, we will stay again if the need arises.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>This was our second stay at this hotel.  The first was for its close proximity to the Katy campus of Methodist Hospital (about 4 blocks).  The second, and most recent, was for pleasure and the hotel measured up both times.  The room on our first visit seemed larger but each room was of adequate size.  The rooms were clean, quiet, and comfortable.  The breakfast in the morning was typical and good.  Just as we stayed a second time, we will stay again if the need arises.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r350409810-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350409810</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>I stay at a Residence Inn when possible and this was my first stay at this location.  Great couple of nights at this well kept RI.  The staff was extremely helpful and very nice.  My room was very clean, up to date and just what I was looking for.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2016</t>
+  </si>
+  <si>
+    <t>I stay at a Residence Inn when possible and this was my first stay at this location.  Great couple of nights at this well kept RI.  The staff was extremely helpful and very nice.  My room was very clean, up to date and just what I was looking for.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r349400928-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -693,15 +1059,6 @@
     <t>This hotel is lovely and clean.  The rooms are very spacious enough to live in.  The full kitchen is great if you want to bring in your own food, or they will stock it for you at your request.  Hot breakfast every morning and evening snacks are also a plus.  The staff are very friendly and helpful.  Best place to stay in west Houston.MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
-    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded March 4, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 4, 2016</t>
-  </si>
-  <si>
     <t>This hotel is lovely and clean.  The rooms are very spacious enough to live in.  The full kitchen is great if you want to bring in your own food, or they will stock it for you at your request.  Hot breakfast every morning and evening snacks are also a plus.  The staff are very friendly and helpful.  Best place to stay in west Houston.More</t>
   </si>
   <si>
@@ -753,6 +1110,57 @@
     <t>We picked up this hotel based on it's rating on TripAdvisor.  We are surprised in a positive way.  The hotel staff is very friendly and helpful.  The happy hour was great.  The breakfast is also very good.  You will not regret by picking this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r332147973-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332147973</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Clean, quite, and comfortable</t>
+  </si>
+  <si>
+    <t>Off Katy freeway in a quite area, the rooms are clean and roomy. Check-in late but the staffs were very kind and helpful. The hot breakfast was not great but sufficient. Very well maintained and managed Residence Inn, kudos to Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded December 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2015</t>
+  </si>
+  <si>
+    <t>Off Katy freeway in a quite area, the rooms are clean and roomy. Check-in late but the staffs were very kind and helpful. The hot breakfast was not great but sufficient. Very well maintained and managed Residence Inn, kudos to Marriott!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r328494572-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328494572</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>We recently stayed at the residence inn and the stay was great! Breakfast was deliciously hot. The room was better than what my husband and I had expected , stylishly modern. A slight problem at check in, the young lady seemed confused, big thank you to Kaylen for stepping in and resolving the issues prior to check in she's phenomenal! Great stay , will definitely come back next time we are in townMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2015</t>
+  </si>
+  <si>
+    <t>We recently stayed at the residence inn and the stay was great! Breakfast was deliciously hot. The room was better than what my husband and I had expected , stylishly modern. A slight problem at check in, the young lady seemed confused, big thank you to Kaylen for stepping in and resolving the issues prior to check in she's phenomenal! Great stay , will definitely come back next time we are in townMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r326385335-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -768,9 +1176,6 @@
     <t>Tasteful contemporary decor.  We were greeted with a good smile and appreciation of my platinum status. Usually you don't hear this kind of comment unless you are staying in a full service hotel such as a Marriott Hotel. Noor was our front desk representative who was courteous and friendly to help us for the room in order of our personal preference.  We enjoyed our stay very much.MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded November 17, 2015</t>
   </si>
   <si>
@@ -828,6 +1233,57 @@
     <t>I stayed here for 4 nights on business. Great staff on reception - asked if I minded being checked in by a staff on training, which was no problem. The room itself was clean, very comfortable. Housekeeping was carried out daily. Complimentary buffet breakfast was great and set me up nicely for each day. Colleagues of mine are staying here soon and I have told tem they will not be disappointed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r305941001-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305941001</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Quiet, uninterrupted stay</t>
+  </si>
+  <si>
+    <t>Everything went smoothly during my stay. Check in was quick and easy,  my room quiet and clean, breakfast good and plenty. The receptionist working that day was also exceptionally friendly. No complaints!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Everything went smoothly during my stay. Check in was quick and easy,  my room quiet and clean, breakfast good and plenty. The receptionist working that day was also exceptionally friendly. No complaints!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r290696650-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290696650</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Stayed one night at this property and loved every bit of it. The property has FREE onsite parking, breakfast and wifi. One can always pay extra to get faster wifi. The check in process was super easy and the front desk gentleman assisted us with any questions. The room was nicely laid down and smelled great. There were plenty of pillows (from extra firm to soft) on the bed. The kitchenette was on one corner of the room, which left plenty of room for my 3 year old to play. The breakfast was bit of  a disappointment. I have stayed at other residence inns and have really enjoyed their full fledged breakfast. Here they had eggs, biscuits, sausage, cereal, oatmeal, breads, coffee/tea, juice etc. The check out process was also easy. The front desk lady was kind enough to extend our checkout time, as my son won't leave the room :)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Marco G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Stayed one night at this property and loved every bit of it. The property has FREE onsite parking, breakfast and wifi. One can always pay extra to get faster wifi. The check in process was super easy and the front desk gentleman assisted us with any questions. The room was nicely laid down and smelled great. There were plenty of pillows (from extra firm to soft) on the bed. The kitchenette was on one corner of the room, which left plenty of room for my 3 year old to play. The breakfast was bit of  a disappointment. I have stayed at other residence inns and have really enjoyed their full fledged breakfast. Here they had eggs, biscuits, sausage, cereal, oatmeal, breads, coffee/tea, juice etc. The check out process was also easy. The front desk lady was kind enough to extend our checkout time, as my son won't leave the room :)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r280255803-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1350,39 @@
     <t>We were in town for a wedding and had 2 rooms for several days. Housekeeping did a good job of keeping the rooms cleaned despite us being in and out of the room. The front desk staff, housekeeping and the breakfast staff were very friendly. I gave 4 stars instead of 5 because there weren't enough pool towels available. I'm not sure if it was a lack of laundry facilities or a lack of towels. The pool was also very cool and not warm enough for this Floridian.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r269083244-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269083244</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>5 day Business / pleasure</t>
+  </si>
+  <si>
+    <t>spent 5 nights here on business. My wife came for the trip.  Friendly staff, clean rooms and handy for places to eat  &amp; shopping. Nice to sit outside with a cold beer at night. ( gas station next door has ample supplies).  Several nights per week there is a happy hour at hotel with free beer, wine and snacks.  Great place to spend longer stays as its more friendly and relaxed than a normal hotel.  All rooms have nicely fitted kitchens with all utensils and there is also a laundry for guests to use.  We would definitely stay again if visiting the same area.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r265167660-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265167660</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoyed our stay. Quiet area overall. Breakfast was good, nice selection, maintained well. Loved the pool with the exception of the fact that it is not heated.  Staff helpful and courteous.  Room nice, could use a bit better cleaning in the bathroom. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r253998607-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1440,42 @@
     <t>The hotel was extremely clean. Great smell as soon as I walked in.  When I checked in I was extremely overwhelmed with the long trip and four kids in the back seat.  The front desk person who checked me was very quick, but still polite.  I guess she could read my face and know I was just ready to get to my room.  The breakfast was prefect loved the fact that they had soda in the morning. I am not a soda drinking but that was a first that I've seen in any hotel with out a restaurant on site.  The breakfast attend was friendly along with the front desk attended who checked me out. Housekeeping actually spoke to me while in the halls.  All in all i had a great weekend. Room was large and had all the items that I needed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r240373954-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240373954</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Comfortable and Accessible</t>
+  </si>
+  <si>
+    <t>We stayed for a couple of days and the property is nice. Convenience store next door for any snack or beverages you may want. Complimentary happy hour and snacks were a good treat.My only complaint are the pillows which are too small and give no support, they basically go flat.This seems to be happening at many Marriott properties. Other than that all was fine and we would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r227598691-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227598691</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>A Nice stay</t>
+  </si>
+  <si>
+    <t>I was looking for a nice hotel to for me and my husband to get out of the house and visit a friend in Houston, in the Katy area.  This hotel was so perfect.  The room was very nice and clean.  We enjoyed the breakfast a lot because I normally never go down for breakfast but this time my husband went down and saw the goods and convinced me to come down and eat.  Glad I did because it was good.  Everyone was really nice and I felt safe in the hotel.  Also it was very quite.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r224884489-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1011,24 +1536,63 @@
     <t>Needed a place to stay during my son's freshman orientation for college.  Residence Inn Houston I-10 West/Barker Cypress was recommended by family.  We stayed two nights and it was absolutely awesome.  The staff is so friendly!  The rooms are beautiful, comfy and clean!  The breakfast was awesome!  I could go on and on.  I told my husband that whenever we go visit our son in college, this is where we will always stay.  Absolutely loved it!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r215563927-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215563927</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>A little disappointing</t>
+  </si>
+  <si>
+    <t>My wife and son stayed there for four days the second week of July of the weekend.  First the good things.  The staff was friendly and helpful.  The room was very clean and the cleaning staff was some of the friendliest I've been around.  The room accommodations were great as well.  Good location between Katy and Houston.  The disappointing things were the room smell and the breakfast.  Our room smelled musty, which for a newer hotel, was disappointing.  Everything was clean but I believe someone had smoked in there and the smell just lingers.  It should be fumigated before renting.  The breakfast was the biggest disappointment.  The Friday morning went fine.  The selections were good and the food relatively tasty.  The next three days were a different story.  They constantly struggled to keep things full.  On Saturday I went by three different times and they were out of several things every time.  They had one gentleman taking care of everything and it wasn't close to being enough help.  He was doing his best but please...you can't expect one person to take care of all he was required to take care of.  This happened three mornings in a row.  If it was just one, I would chalk it up to someone calling in sick.  Three times in a row??? Thats a scheduling/staffing issue.  When you book a room that says they have a full breakfast, you expect a full breakfast for...My wife and son stayed there for four days the second week of July of the weekend.  First the good things.  The staff was friendly and helpful.  The room was very clean and the cleaning staff was some of the friendliest I've been around.  The room accommodations were great as well.  Good location between Katy and Houston.  The disappointing things were the room smell and the breakfast.  Our room smelled musty, which for a newer hotel, was disappointing.  Everything was clean but I believe someone had smoked in there and the smell just lingers.  It should be fumigated before renting.  The breakfast was the biggest disappointment.  The Friday morning went fine.  The selections were good and the food relatively tasty.  The next three days were a different story.  They constantly struggled to keep things full.  On Saturday I went by three different times and they were out of several things every time.  They had one gentleman taking care of everything and it wasn't close to being enough help.  He was doing his best but please...you can't expect one person to take care of all he was required to take care of.  This happened three mornings in a row.  If it was just one, I would chalk it up to someone calling in sick.  Three times in a row??? Thats a scheduling/staffing issue.  When you book a room that says they have a full breakfast, you expect a full breakfast for the duration of the breakfast hrs, not just the first 30 minutes.  Several people would complain to the desk clerk and she would come over and help a little and then go back to standing at the desk.  Just very disappointing from a property that we've loved to stay at in the past.MoreShow less</t>
+  </si>
+  <si>
+    <t>Juli A, Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded July 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2014</t>
+  </si>
+  <si>
+    <t>My wife and son stayed there for four days the second week of July of the weekend.  First the good things.  The staff was friendly and helpful.  The room was very clean and the cleaning staff was some of the friendliest I've been around.  The room accommodations were great as well.  Good location between Katy and Houston.  The disappointing things were the room smell and the breakfast.  Our room smelled musty, which for a newer hotel, was disappointing.  Everything was clean but I believe someone had smoked in there and the smell just lingers.  It should be fumigated before renting.  The breakfast was the biggest disappointment.  The Friday morning went fine.  The selections were good and the food relatively tasty.  The next three days were a different story.  They constantly struggled to keep things full.  On Saturday I went by three different times and they were out of several things every time.  They had one gentleman taking care of everything and it wasn't close to being enough help.  He was doing his best but please...you can't expect one person to take care of all he was required to take care of.  This happened three mornings in a row.  If it was just one, I would chalk it up to someone calling in sick.  Three times in a row??? Thats a scheduling/staffing issue.  When you book a room that says they have a full breakfast, you expect a full breakfast for...My wife and son stayed there for four days the second week of July of the weekend.  First the good things.  The staff was friendly and helpful.  The room was very clean and the cleaning staff was some of the friendliest I've been around.  The room accommodations were great as well.  Good location between Katy and Houston.  The disappointing things were the room smell and the breakfast.  Our room smelled musty, which for a newer hotel, was disappointing.  Everything was clean but I believe someone had smoked in there and the smell just lingers.  It should be fumigated before renting.  The breakfast was the biggest disappointment.  The Friday morning went fine.  The selections were good and the food relatively tasty.  The next three days were a different story.  They constantly struggled to keep things full.  On Saturday I went by three different times and they were out of several things every time.  They had one gentleman taking care of everything and it wasn't close to being enough help.  He was doing his best but please...you can't expect one person to take care of all he was required to take care of.  This happened three mornings in a row.  If it was just one, I would chalk it up to someone calling in sick.  Three times in a row??? Thats a scheduling/staffing issue.  When you book a room that says they have a full breakfast, you expect a full breakfast for the duration of the breakfast hrs, not just the first 30 minutes.  Several people would complain to the desk clerk and she would come over and help a little and then go back to standing at the desk.  Just very disappointing from a property that we've loved to stay at in the past.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r212197159-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212197159</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Houston Trip.</t>
+  </si>
+  <si>
+    <t>I just wanted to take this opportunity to say me and my wife are always happy to stay in this hotel because it is always clean, the bed is comfortable and most importantly the staffs especially Charles and Justin are great people. We travel from Austin to Houston for pleasure and business reasons and your hotel is always the best. No matter how late we come after a long drive and going out for pleasure, Charles is always smiling, friendly and we appreciate the late check-out. Justin as well is a good communicator who is friendly and makes us feel at home. We are impressed at the other staffs as well but Justin and Charles are the ones we see regularly because we come to Houston for the weekend. Please let them know we value them and pass on this compliment to them. They are great assets to Marriot.Jacqueline &amp; RichardMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I just wanted to take this opportunity to say me and my wife are always happy to stay in this hotel because it is always clean, the bed is comfortable and most importantly the staffs especially Charles and Justin are great people. We travel from Austin to Houston for pleasure and business reasons and your hotel is always the best. No matter how late we come after a long drive and going out for pleasure, Charles is always smiling, friendly and we appreciate the late check-out. Justin as well is a good communicator who is friendly and makes us feel at home. We are impressed at the other staffs as well but Justin and Charles are the ones we see regularly because we come to Houston for the weekend. Please let them know we value them and pass on this compliment to them. They are great assets to Marriot.Jacqueline &amp; RichardMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r212175570-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
     <t>212175570</t>
   </si>
   <si>
-    <t>06/26/2014</t>
-  </si>
-  <si>
     <t>Front Desk Agent</t>
   </si>
   <si>
     <t>I literally live in hotels 4-5 days a week and this is my first reviewing a hotel. In consideration of other important factors that makes stay in a hotel accommodating, I just want to take my hats off to the gentleman at the front desk agent, Montrell M. He went out of his way to make me and my family feel at home. Exceptional reception and speedy response to any query with courtesy and respect. Most front desk agents do NOT understand that they are the key to heart of a customer but Montrell M does. As a result we extended our stay and i recommend this clean neat environment to anyone travelling to the houston area. Richmond A.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>I literally live in hotels 4-5 days a week and this is my first reviewing a hotel. In consideration of other important factors that makes stay in a hotel accommodating, I just want to take my hats off to the gentleman at the front desk agent, Montrell M. He went out of his way to make me and my family feel at home. Exceptional reception and speedy response to any query with courtesy and respect. Most front desk agents do NOT understand that they are the key to heart of a customer but Montrell M does. As a result we extended our stay and i recommend this clean neat environment to anyone travelling to the houston area. Richmond A.More</t>
   </si>
   <si>
@@ -1066,6 +1630,39 @@
   </si>
   <si>
     <t>My husband, kids &amp; I stayed here on a quick business trip. The room was clean and smelled fresh. Beds were comfortable. Quiet hotel. A few times I heard the person in the room above us. I enjoyed this hotel very much and would stay again. I did not interact with the staff so I can't say if they are friendly or not :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r210123419-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210123419</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Houston Trip</t>
+  </si>
+  <si>
+    <t>I'm a big fan of Residence Inns (Marriott) and this little hotel did not let me down. Big clean rooms with kitchenette; if you want to stay in. Limited breakfast fare but more than enough for British palettes and as much as you can eat. If you want to get anywhere in Houston you have to drive, but excellent selection of eating places within ten minutes down the Katy Freeway.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r210089762-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210089762</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Smaller rooms accomodate single or couple</t>
+  </si>
+  <si>
+    <t>The one bedroom king suite was not quite as pictured since the sofa was a loveseat rather than sectional.   No luggage rack or place for a chair in the bedroom and no privacy access to bath for anyone staying on the sofa bed.   Usually traveling alone or as a couple we opt for the studio and even with a 3rd family member on this trip it may have been more open and comfortable. Other than the very small square footage at this location you do get all the bells and whistles we love about Residence Inn including hot breakfast and kudos to Juli in management who was quick to respond to our concerns.MoreShow less</t>
+  </si>
+  <si>
+    <t>The one bedroom king suite was not quite as pictured since the sofa was a loveseat rather than sectional.   No luggage rack or place for a chair in the bedroom and no privacy access to bath for anyone staying on the sofa bed.   Usually traveling alone or as a couple we opt for the studio and even with a 3rd family member on this trip it may have been more open and comfortable. Other than the very small square footage at this location you do get all the bells and whistles we love about Residence Inn including hot breakfast and kudos to Juli in management who was quick to respond to our concerns.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r203715403-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
@@ -1132,6 +1729,51 @@
     <t>Newer Residence Inn just off IH 10 West in the Energy Corridor. All the standard beels and whistles of a new generation RI. Breakfast was pretty standard but good.  We were treated well and the staff was very knowledgable abouth the area.  Access is okay but you have to make a U-turn existing to get back to IH-10.  Definitely qualifies for  a repeat stay here.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r196911037-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196911037</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Hotel was the highlight of the trip</t>
+  </si>
+  <si>
+    <t>This was the second time I had stayed in a Residence Inn and this location was 100% better! It was recently remodeled and the room looks great. (The first one I stayed in was in CA and hadn't had a remodel in years). I travel with my husband, 8 year old son, and 2 year old daughter so a suite is nice to have so we don't feel too cluttered and claustrophobic. I love the ease of having a full kitchen stocked with utensils, a pull out sectional sofabed, and room for a portable crib. We had never been to Houston before so we weren't sure if we had picked a location that was too far out, but it didn't take us too long to get to where we needed to be (This is not the place for me to lament about the traffic in Houston). My advice is to find a route that avoids the tolls if possible. If not, make sure you have several rolls of quarters. This trip to Houston ended up being a very unlucky one for me so I am glad that I had this clean and comfortable room to stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This was the second time I had stayed in a Residence Inn and this location was 100% better! It was recently remodeled and the room looks great. (The first one I stayed in was in CA and hadn't had a remodel in years). I travel with my husband, 8 year old son, and 2 year old daughter so a suite is nice to have so we don't feel too cluttered and claustrophobic. I love the ease of having a full kitchen stocked with utensils, a pull out sectional sofabed, and room for a portable crib. We had never been to Houston before so we weren't sure if we had picked a location that was too far out, but it didn't take us too long to get to where we needed to be (This is not the place for me to lament about the traffic in Houston). My advice is to find a route that avoids the tolls if possible. If not, make sure you have several rolls of quarters. This trip to Houston ended up being a very unlucky one for me so I am glad that I had this clean and comfortable room to stay in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r195956129-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195956129</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Good be better without the cooking smells</t>
+  </si>
+  <si>
+    <t>Reception was very friendly. Got first room with noisy AC and enormous cooking smells. Received same room on higher floor, which seemed better at first sight. Room was tidy and clean, corridors however can use a good vacuum cleaning. Found a ladder just outside our door in front of te fire extinguisher (brough it to a safer place). Next day also in this room horrable cooking smells. We are not using the kitchen to cook and I do not know what other guests are cooking, but this feels likes being in a diiferent part of the world if it comes to the smell. Will not take this Residence Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Juli A, Front Office Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Reception was very friendly. Got first room with noisy AC and enormous cooking smells. Received same room on higher floor, which seemed better at first sight. Room was tidy and clean, corridors however can use a good vacuum cleaning. Found a ladder just outside our door in front of te fire extinguisher (brough it to a safer place). Next day also in this room horrable cooking smells. We are not using the kitchen to cook and I do not know what other guests are cooking, but this feels likes being in a diiferent part of the world if it comes to the smell. Will not take this Residence Inn again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r194531749-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1147,9 +1789,6 @@
     <t>Enjoyed staying at this hotel over the last past 4 days.  Property is clean and newer.  There is ample parking and breakfast was great. There are also some fast food restaurants nearby. I would stay here again if I travel to Houston.</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r188013997-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1831,60 @@
     <t xml:space="preserve">Stayed there for a week and was extremely impressed! The room was clean and has the feel of a mini apartment. The area feels very secure. Breakfast and dinner included- although you have to go early because food goes by fast and they do not serve much more. Food is standard, like other hotels - nothing special. A lot of people studying in the lobby. I would recommend this hotel to families, business people, passing by, just passing by, etc. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r165981405-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165981405</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Good room, location and value.  Just don't be late for breakfast or dinner they stand by the food looking at their watch and shut it down at the exact time indicated.  I had the one bedroom suite which was large and clean.   Location was right by I-10 but there was no problem with the noise.  Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>David S, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Good room, location and value.  Just don't be late for breakfast or dinner they stand by the food looking at their watch and shut it down at the exact time indicated.  I had the one bedroom suite which was large and clean.   Location was right by I-10 but there was no problem with the noise.  Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r163396037-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163396037</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>Great Residence Inn</t>
+  </si>
+  <si>
+    <t>We stayed here while passing through the Houston area. I have to say I've never stayed at a Residence Inn before, and now I do love the chain. Right off I-10 along one of the side roads. Our room was clean and spacious, a course with a kitchenette that we loved. The staff was also very friendly, and made me feel like a guest. We don't usually come near Houston, it's once awhile that we do come to Houston, but I would still recommend this place to anyone, who needs a spacious place to sleep for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>David S, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded June 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here while passing through the Houston area. I have to say I've never stayed at a Residence Inn before, and now I do love the chain. Right off I-10 along one of the side roads. Our room was clean and spacious, a course with a kitchenette that we loved. The staff was also very friendly, and made me feel like a guest. We don't usually come near Houston, it's once awhile that we do come to Houston, but I would still recommend this place to anyone, who needs a spacious place to sleep for the night.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r155803854-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1205,9 +1898,6 @@
   </si>
   <si>
     <t>I had a training event for some colleagues and Rodney was very helpful in setting up the room reservations as well as the conference room and catering for our event.  The staff there made sure the room was set up as we had discussed and made sure we had everything we needed.  I was impressed with the cleanliness of the hotel in general.  The catered food was excellent as well as the breakfast and happy hour freebies.  My whole group was impressed with the experience and our training event was a total success.  Good job Rodney and we would definitely return for another event.MoreShow less</t>
-  </si>
-  <si>
-    <t>March 2013</t>
   </si>
   <si>
     <t>David S, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded April 8, 2013</t>
@@ -1281,6 +1971,51 @@
 All of the staff members, from the kitchen help...When I was planning my trip to Houston, I called another motel.  The experience was not good.  The desk staff couldn't even answer the phone properly, the sales staff never returned my calls or Emails, and there was a distinct lack of concern for my needs.  I needed to send them a check for my stay, but I was afraid they would lose it, so I finally decided that this was not the place to stay.When I called Marriott I-10, from the very moment that I called in, the experience was different.  The voice that answered was clear and I understood that I had gotten in touch with Marriott Residence Inn rather than wondering who or what it was that had answered the phone. I asked for the manager and within a minute,  Chris was on the phone with me.Chris is the consumate professional.  I think that Marriott is very fortunate to have him.  He answered all my questions and the way that he handed everything made me comfortable forwarding a large check to him for our stay.The arrival was a delight.  The motel is new.  Everything in it has been well kept in this first year of existence.  No smells, no dirty corners, nothing out of place.  Even the computers work well!  The excercise room was a pleasant surprise.  It has both exercise machines and free weights.All of the staff members, from the kitchen help right up to the front desk, are always smiling, pleasant, and always greet you.  The maids do a tremendous job on the rooms, and sometimes we left something of a mess for them.  The breakfast bar is nicely done and they work to provide a change and variety every morning.  I even like their coffee (I usually HATE motel coffee!).You will not do any better in Houston than this motel.  In addition, it is located nicely right off I-10, which is a main highway through the city area.  This made our navigation easy.  There are a number of shops and restaurants within close distance.Stay here!  You will love the people and love the motel!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r148641974-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148641974</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Newer &amp; Very Nice</t>
+  </si>
+  <si>
+    <t>This hotel is located away from the Houston crowds almost to Katy.  Our suite was clean, attractive, and spacious, and the breakfast was great.  They had reasonable weekend-type rates during the Christmas holidays.  The area seems newly developed and off the interstate highway, so we found no restaurants nearby.  However, they feature light meals with a happy hour during the week.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r146261388-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146261388</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>A Great Marriott Hotel on the West Side</t>
+  </si>
+  <si>
+    <t>So I stay at a lot of Marriotts and this one is relatively new and for a residence inn - very nice!  The room was the best surprise with a really nice mattress and good pillows.  They also have a very functional workout room and Precor tread mills (a traveler has to get his exercise!) and they had happy hour and I was surprised to find salad with non-fat dressing, plenty of veggies, and a chicken dish.  I simply had dinner here and they enjoyed some time outside on the patio at the fire pit (I really enjoyed that!).  And although I sort of hate to say this, I was able to get a really business rate that I didn't expect...I'll also note that we've had others from our company here over the last several months and although this was my first time to stay, I was really impressed.  Sometimes a residence inn can be..  Well...  Less than desirable.  This one was great!A great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded November 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2012</t>
+  </si>
+  <si>
+    <t>So I stay at a lot of Marriotts and this one is relatively new and for a residence inn - very nice!  The room was the best surprise with a really nice mattress and good pillows.  They also have a very functional workout room and Precor tread mills (a traveler has to get his exercise!) and they had happy hour and I was surprised to find salad with non-fat dressing, plenty of veggies, and a chicken dish.  I simply had dinner here and they enjoyed some time outside on the patio at the fire pit (I really enjoyed that!).  And although I sort of hate to say this, I was able to get a really business rate that I didn't expect...I'll also note that we've had others from our company here over the last several months and although this was my first time to stay, I was really impressed.  Sometimes a residence inn can be..  Well...  Less than desirable.  This one was great!A great place to stay!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r145040729-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1299,12 +2034,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>Chris G, General Manager at Residence Inn Houston I-10 West/Park Row, responded to this reviewResponded November 29, 2012</t>
-  </si>
-  <si>
-    <t>Responded November 29, 2012</t>
-  </si>
-  <si>
     <t>Great stay! Everything was taken care of upon arrival. Friendly staff from front desk to maintenance.   Room was always clean and breakfast bar was wonderful.  I would most definitely recommend this hotel to anyone going that way.More</t>
   </si>
   <si>
@@ -1344,6 +2073,39 @@
     <t>The staff was friendly, the rooms were clean and the exercise facilities were great.  Loved the breakfast too!  Great experience from the start - booking with Sales Director to Check in process to check out.  Everything went perfectly.  I would definitely stay there again and recommend them to others.  Sandy B.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r141454642-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141454642</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>Excellent spot</t>
+  </si>
+  <si>
+    <t>Everyone was friendly and helpful. Nice and quiet ...my only complaint would be sheets too rough...We were on a long tiring trip. This room was perfect for our short stay. Two seniors and a dog. Easy to access from the highway. We were travelling east and got ack on the road by six A.M. And therefore missed the heavy morning traffic through downtown Houston.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r140503949-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140503949</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>This hotel was over the top accommodating across the board; we had a very important presentation that my team was prepping for and this experience was exceptional from the coordination of our business meeting to general service. We will definitely use them again for upcoming business travel/meetings.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3191802-r140026465-Residence_Inn_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1357,9 +2119,6 @@
   </si>
   <si>
     <t>My 94 year old father and I recently fled from being in the path of Hurricane Isaac to this wonderful property, where we felt like family.The staff was such a blessing to us, by helping us get settled and ensuring we were their family.  They constantly supported us as we worried about our home and our friends back home.  The staff was helpful, reassuring and caring.The property itself is gorgeous, and I have lived in apartments much smaller than my room.  Best of all, my cat was welcomed there with open arms!The location was great!  Just down the road was everything I could ever want.  I loved that we were so close to everything.  The on-site laundry room was cleaner than if I cleaned it myself.  Even though we were displaced for a week, it was more than a pleasure to stay at this lovely property with these caring, kind people. Thanks to everyone who helped us out!MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2012</t>
   </si>
   <si>
     <t>My 94 year old father and I recently fled from being in the path of Hurricane Isaac to this wonderful property, where we felt like family.The staff was such a blessing to us, by helping us get settled and ensuring we were their family.  They constantly supported us as we worried about our home and our friends back home.  The staff was helpful, reassuring and caring.The property itself is gorgeous, and I have lived in apartments much smaller than my room.  Best of all, my cat was welcomed there with open arms!The location was great!  Just down the road was everything I could ever want.  I loved that we were so close to everything.  The on-site laundry room was cleaner than if I cleaned it myself.  Even though we were displaced for a week, it was more than a pleasure to stay at this lovely property with these caring, kind people. Thanks to everyone who helped us out!More</t>
@@ -1971,9 +2730,7 @@
         <v>5</v>
       </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -2028,34 +2785,28 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -2071,52 +2822,58 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="X5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>81</v>
-      </c>
-      <c r="X5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2132,48 +2889,58 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
         <v>89</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>90</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -2189,41 +2956,41 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>93</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>95</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
         <v>96</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
@@ -2234,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -2256,56 +3023,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2321,7 +3084,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2330,25 +3093,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2360,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2382,53 +3145,45 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
         <v>116</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>117</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>118</v>
       </c>
-      <c r="K10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" t="s">
-        <v>120</v>
-      </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O10" t="s">
-        <v>107</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
         <v>121</v>
@@ -2468,25 +3223,25 @@
         <v>126</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
         <v>4</v>
       </c>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
         <v>4</v>
       </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2541,29 +3296,25 @@
         <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -2579,7 +3330,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2588,43 +3339,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -2640,7 +3397,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2649,43 +3406,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -2701,7 +3462,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2710,25 +3471,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2740,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
         <v>162</v>
@@ -2786,25 +3547,29 @@
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s">
         <v>168</v>
@@ -2835,29 +3600,29 @@
         <v>170</v>
       </c>
       <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
         <v>171</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>172</v>
       </c>
-      <c r="L17" t="s">
-        <v>173</v>
-      </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>175</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2866,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -2888,7 +3653,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2897,49 +3662,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -2955,52 +3714,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
         <v>188</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J19" t="s">
-        <v>190</v>
-      </c>
-      <c r="K19" t="s">
-        <v>191</v>
-      </c>
-      <c r="L19" t="s">
-        <v>192</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>193</v>
-      </c>
-      <c r="O19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>194</v>
-      </c>
-      <c r="X19" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -3016,7 +3781,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3025,49 +3790,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -3083,7 +3846,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3092,47 +3855,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -3148,7 +3907,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3157,36 +3916,32 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
@@ -3197,7 +3952,7 @@
         <v>211</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
@@ -3213,7 +3968,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3222,49 +3977,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
@@ -3280,7 +4029,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3289,49 +4038,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
@@ -3347,7 +4090,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3356,49 +4099,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
@@ -3414,7 +4151,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3423,47 +4160,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="X26" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
@@ -3479,7 +4212,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3488,43 +4221,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
-      <c r="P27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="X27" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
@@ -3540,7 +4279,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3549,34 +4288,32 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3585,13 +4322,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="X28" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
@@ -3607,7 +4344,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3616,43 +4353,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="X29" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
@@ -3668,7 +4409,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3677,47 +4418,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
@@ -3733,7 +4476,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3742,45 +4485,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K31" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>280</v>
+      </c>
+      <c r="X31" t="s">
+        <v>281</v>
+      </c>
       <c r="Y31" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
@@ -3796,7 +4537,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3805,39 +4546,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
       <c r="Y32" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
@@ -3853,7 +4604,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3862,25 +4613,25 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3891,10 +4642,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>297</v>
+      </c>
+      <c r="X33" t="s">
+        <v>298</v>
+      </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34">
@@ -3910,52 +4665,58 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s">
         <v>304</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>305</v>
-      </c>
-      <c r="J34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K34" t="s">
-        <v>307</v>
-      </c>
-      <c r="L34" t="s">
-        <v>308</v>
-      </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>305</v>
+      </c>
+      <c r="X34" t="s">
+        <v>306</v>
+      </c>
       <c r="Y34" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
@@ -3971,56 +4732,56 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" t="s">
+        <v>310</v>
+      </c>
+      <c r="K35" t="s">
         <v>311</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>312</v>
       </c>
-      <c r="J35" t="s">
-        <v>313</v>
-      </c>
-      <c r="K35" t="s">
-        <v>314</v>
-      </c>
-      <c r="L35" t="s">
-        <v>315</v>
-      </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="X35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Y35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
@@ -4036,39 +4797,39 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
         <v>320</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>321</v>
       </c>
-      <c r="J36" t="s">
-        <v>322</v>
-      </c>
-      <c r="K36" t="s">
-        <v>323</v>
-      </c>
-      <c r="L36" t="s">
-        <v>324</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>325</v>
-      </c>
       <c r="O36" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
@@ -4078,10 +4839,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>313</v>
+      </c>
+      <c r="X36" t="s">
+        <v>314</v>
+      </c>
       <c r="Y36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37">
@@ -4097,39 +4862,39 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" t="s">
         <v>326</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>327</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>328</v>
       </c>
-      <c r="K37" t="s">
-        <v>329</v>
-      </c>
-      <c r="L37" t="s">
-        <v>330</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>325</v>
-      </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
@@ -4139,10 +4904,14 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>329</v>
+      </c>
+      <c r="X37" t="s">
+        <v>330</v>
+      </c>
       <c r="Y37" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
@@ -4158,7 +4927,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4167,19 +4936,19 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K38" t="s">
-        <v>334</v>
+        <v>177</v>
       </c>
       <c r="L38" t="s">
         <v>335</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
         <v>336</v>
@@ -4187,18 +4956,12 @@
       <c r="O38" t="s">
         <v>53</v>
       </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4206,10 +4969,14 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>337</v>
+      </c>
+      <c r="X38" t="s">
+        <v>338</v>
+      </c>
       <c r="Y38" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
@@ -4225,7 +4992,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4234,38 +5001,34 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
         <v>5</v>
       </c>
       <c r="R39" t="n">
         <v>5</v>
       </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4274,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="X39" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Y39" t="s">
         <v>345</v>
@@ -4308,36 +5071,46 @@
         <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X40" t="s">
+        <v>352</v>
+      </c>
       <c r="Y40" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41">
@@ -4353,7 +5126,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4362,53 +5135,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="J41" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="X41" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Y41" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
@@ -4424,7 +5193,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4433,38 +5202,34 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J42" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K42" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L42" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
         <v>5</v>
       </c>
       <c r="R42" t="n">
         <v>5</v>
       </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4472,10 +5237,14 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>367</v>
+      </c>
+      <c r="X42" t="s">
+        <v>368</v>
+      </c>
       <c r="Y42" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43">
@@ -4491,7 +5260,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4500,49 +5269,43 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="J43" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>376</v>
+      </c>
+      <c r="X43" t="s">
+        <v>377</v>
+      </c>
       <c r="Y43" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
@@ -4558,7 +5321,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4567,16 +5330,16 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="J44" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -4590,15 +5353,9 @@
       <c r="P44" t="n">
         <v>5</v>
       </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -4606,10 +5363,14 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>384</v>
+      </c>
+      <c r="X44" t="s">
+        <v>385</v>
+      </c>
       <c r="Y44" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45">
@@ -4625,7 +5386,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4634,53 +5395,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="X45" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y45" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46">
@@ -4696,7 +5447,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4705,31 +5456,31 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="J46" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="n">
         <v>4</v>
       </c>
+      <c r="N46" t="s">
+        <v>399</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
         <v>4</v>
       </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
         <v>5</v>
       </c>
@@ -4740,10 +5491,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>400</v>
+      </c>
+      <c r="X46" t="s">
+        <v>401</v>
+      </c>
       <c r="Y46" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47">
@@ -4759,7 +5514,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4768,53 +5523,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="X47" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="Y47" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
@@ -4830,7 +5575,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4839,53 +5584,47 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>402</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="X48" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="Y48" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
@@ -4901,7 +5640,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4910,53 +5649,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="O49" t="s">
-        <v>175</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="X49" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="Y49" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
@@ -4972,7 +5701,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4981,53 +5710,47 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="J50" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="K50" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="L50" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
         <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="X50" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="Y50" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51">
@@ -5043,7 +5766,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5052,38 +5775,34 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="J51" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K51" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="L51" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="O51" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
         <v>5</v>
       </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>5</v>
@@ -5091,14 +5810,10 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>423</v>
-      </c>
-      <c r="X51" t="s">
-        <v>424</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52">
@@ -5114,7 +5829,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5123,38 +5838,34 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="J52" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="K52" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="L52" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5162,14 +5873,10 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>423</v>
-      </c>
-      <c r="X52" t="s">
-        <v>424</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53">
@@ -5185,7 +5892,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5194,49 +5901,2429 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>444</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>453</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>454</v>
+      </c>
+      <c r="J54" t="s">
+        <v>455</v>
+      </c>
+      <c r="K54" t="s">
+        <v>456</v>
+      </c>
+      <c r="L54" t="s">
+        <v>457</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>458</v>
+      </c>
+      <c r="O54" t="s">
+        <v>234</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>459</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>460</v>
+      </c>
+      <c r="J55" t="s">
+        <v>461</v>
+      </c>
+      <c r="K55" t="s">
+        <v>462</v>
+      </c>
+      <c r="L55" t="s">
+        <v>463</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>464</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>465</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>466</v>
+      </c>
+      <c r="J56" t="s">
+        <v>467</v>
+      </c>
+      <c r="K56" t="s">
+        <v>468</v>
+      </c>
+      <c r="L56" t="s">
+        <v>469</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>470</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>472</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>474</v>
+      </c>
+      <c r="K57" t="s">
+        <v>475</v>
+      </c>
+      <c r="L57" t="s">
+        <v>476</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>477</v>
+      </c>
+      <c r="O57" t="s">
+        <v>96</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>478</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>479</v>
+      </c>
+      <c r="J58" t="s">
+        <v>480</v>
+      </c>
+      <c r="K58" t="s">
+        <v>481</v>
+      </c>
+      <c r="L58" t="s">
+        <v>482</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>483</v>
+      </c>
+      <c r="O58" t="s">
+        <v>96</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>484</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>485</v>
+      </c>
+      <c r="J59" t="s">
+        <v>486</v>
+      </c>
+      <c r="K59" t="s">
+        <v>487</v>
+      </c>
+      <c r="L59" t="s">
+        <v>488</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>489</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>490</v>
+      </c>
+      <c r="X59" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>493</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>494</v>
+      </c>
+      <c r="J60" t="s">
+        <v>495</v>
+      </c>
+      <c r="K60" t="s">
+        <v>496</v>
+      </c>
+      <c r="L60" t="s">
+        <v>497</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>498</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>499</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>500</v>
+      </c>
+      <c r="J61" t="s">
+        <v>501</v>
+      </c>
+      <c r="K61" t="s">
+        <v>502</v>
+      </c>
+      <c r="L61" t="s">
+        <v>503</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>498</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>504</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>505</v>
+      </c>
+      <c r="J62" t="s">
+        <v>506</v>
+      </c>
+      <c r="K62" t="s">
+        <v>507</v>
+      </c>
+      <c r="L62" t="s">
+        <v>508</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>498</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>509</v>
+      </c>
+      <c r="X62" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>512</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>513</v>
+      </c>
+      <c r="J63" t="s">
+        <v>514</v>
+      </c>
+      <c r="K63" t="s">
+        <v>515</v>
+      </c>
+      <c r="L63" t="s">
+        <v>516</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>517</v>
+      </c>
+      <c r="O63" t="s">
+        <v>154</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>519</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>520</v>
+      </c>
+      <c r="J64" t="s">
+        <v>514</v>
+      </c>
+      <c r="K64" t="s">
+        <v>521</v>
+      </c>
+      <c r="L64" t="s">
+        <v>522</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>517</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>525</v>
+      </c>
+      <c r="J65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" t="s">
+        <v>527</v>
+      </c>
+      <c r="L65" t="s">
+        <v>528</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>517</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>529</v>
+      </c>
+      <c r="X65" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>532</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>533</v>
+      </c>
+      <c r="J66" t="s">
+        <v>526</v>
+      </c>
+      <c r="K66" t="s">
+        <v>534</v>
+      </c>
+      <c r="L66" t="s">
+        <v>535</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>517</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67" t="s">
+        <v>538</v>
+      </c>
+      <c r="K67" t="s">
+        <v>539</v>
+      </c>
+      <c r="L67" t="s">
+        <v>540</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>489</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>541</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>542</v>
+      </c>
+      <c r="J68" t="s">
+        <v>543</v>
+      </c>
+      <c r="K68" t="s">
+        <v>544</v>
+      </c>
+      <c r="L68" t="s">
+        <v>545</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>517</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>547</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>548</v>
+      </c>
+      <c r="J69" t="s">
+        <v>549</v>
+      </c>
+      <c r="K69" t="s">
+        <v>550</v>
+      </c>
+      <c r="L69" t="s">
+        <v>551</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>489</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>552</v>
+      </c>
+      <c r="X69" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>555</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>556</v>
+      </c>
+      <c r="J70" t="s">
+        <v>557</v>
+      </c>
+      <c r="K70" t="s">
+        <v>558</v>
+      </c>
+      <c r="L70" t="s">
+        <v>559</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>560</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>562</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>563</v>
+      </c>
+      <c r="J71" t="s">
+        <v>564</v>
+      </c>
+      <c r="K71" t="s">
+        <v>565</v>
+      </c>
+      <c r="L71" t="s">
+        <v>566</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>560</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>567</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>568</v>
+      </c>
+      <c r="J72" t="s">
+        <v>569</v>
+      </c>
+      <c r="K72" t="s">
+        <v>570</v>
+      </c>
+      <c r="L72" t="s">
+        <v>571</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>572</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>574</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>575</v>
+      </c>
+      <c r="J73" t="s">
+        <v>576</v>
+      </c>
+      <c r="K73" t="s">
+        <v>577</v>
+      </c>
+      <c r="L73" t="s">
+        <v>578</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>560</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>579</v>
+      </c>
+      <c r="X73" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>582</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>583</v>
+      </c>
+      <c r="J74" t="s">
+        <v>584</v>
+      </c>
+      <c r="K74" t="s">
+        <v>585</v>
+      </c>
+      <c r="L74" t="s">
+        <v>586</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>572</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>587</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>588</v>
+      </c>
+      <c r="J75" t="s">
+        <v>589</v>
+      </c>
+      <c r="K75" t="s">
+        <v>590</v>
+      </c>
+      <c r="L75" t="s">
+        <v>591</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>592</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>593</v>
+      </c>
+      <c r="X75" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>596</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>597</v>
+      </c>
+      <c r="J76" t="s">
+        <v>598</v>
+      </c>
+      <c r="K76" t="s">
+        <v>599</v>
+      </c>
+      <c r="L76" t="s">
+        <v>600</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>601</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>602</v>
+      </c>
+      <c r="J77" t="s">
+        <v>603</v>
+      </c>
+      <c r="K77" t="s">
+        <v>604</v>
+      </c>
+      <c r="L77" t="s">
+        <v>605</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>606</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>607</v>
+      </c>
+      <c r="X77" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>610</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>611</v>
+      </c>
+      <c r="J78" t="s">
+        <v>612</v>
+      </c>
+      <c r="K78" t="s">
+        <v>613</v>
+      </c>
+      <c r="L78" t="s">
+        <v>614</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>615</v>
+      </c>
+      <c r="O78" t="s">
+        <v>71</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>616</v>
+      </c>
+      <c r="X78" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>619</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>620</v>
+      </c>
+      <c r="J79" t="s">
+        <v>621</v>
+      </c>
+      <c r="K79" t="s">
+        <v>622</v>
+      </c>
+      <c r="L79" t="s">
+        <v>623</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>615</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>624</v>
+      </c>
+      <c r="X79" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>627</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>628</v>
+      </c>
+      <c r="J80" t="s">
+        <v>629</v>
+      </c>
+      <c r="K80" t="s">
+        <v>630</v>
+      </c>
+      <c r="L80" t="s">
+        <v>631</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>632</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>633</v>
+      </c>
+      <c r="X80" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>636</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>637</v>
+      </c>
+      <c r="J81" t="s">
+        <v>638</v>
+      </c>
+      <c r="K81" t="s">
+        <v>639</v>
+      </c>
+      <c r="L81" t="s">
+        <v>640</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>641</v>
+      </c>
+      <c r="O81" t="s">
+        <v>96</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>642</v>
+      </c>
+      <c r="X81" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>645</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>646</v>
+      </c>
+      <c r="J82" t="s">
+        <v>647</v>
+      </c>
+      <c r="K82" t="s">
+        <v>648</v>
+      </c>
+      <c r="L82" t="s">
+        <v>649</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>650</v>
+      </c>
+      <c r="O82" t="s">
+        <v>96</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>651</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>652</v>
+      </c>
+      <c r="J83" t="s">
+        <v>653</v>
+      </c>
+      <c r="K83" t="s">
+        <v>654</v>
+      </c>
+      <c r="L83" t="s">
+        <v>655</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>656</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>657</v>
+      </c>
+      <c r="X83" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>660</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>661</v>
+      </c>
+      <c r="J84" t="s">
+        <v>662</v>
+      </c>
+      <c r="K84" t="s">
+        <v>663</v>
+      </c>
+      <c r="L84" t="s">
+        <v>664</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>665</v>
+      </c>
+      <c r="O84" t="s">
+        <v>71</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>657</v>
+      </c>
+      <c r="X84" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>667</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>668</v>
+      </c>
+      <c r="J85" t="s">
+        <v>669</v>
+      </c>
+      <c r="K85" t="s">
+        <v>670</v>
+      </c>
+      <c r="L85" t="s">
+        <v>671</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>665</v>
+      </c>
+      <c r="O85" t="s">
+        <v>154</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>657</v>
+      </c>
+      <c r="X85" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>673</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>674</v>
+      </c>
+      <c r="J86" t="s">
+        <v>675</v>
+      </c>
+      <c r="K86" t="s">
+        <v>676</v>
+      </c>
+      <c r="L86" t="s">
+        <v>677</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>665</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>657</v>
+      </c>
+      <c r="X86" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>679</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>680</v>
+      </c>
+      <c r="J87" t="s">
+        <v>681</v>
+      </c>
+      <c r="K87" t="s">
+        <v>682</v>
+      </c>
+      <c r="L87" t="s">
+        <v>683</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>684</v>
+      </c>
+      <c r="O87" t="s">
+        <v>96</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>685</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>686</v>
+      </c>
+      <c r="J88" t="s">
+        <v>687</v>
+      </c>
+      <c r="K88" t="s">
+        <v>688</v>
+      </c>
+      <c r="L88" t="s">
+        <v>689</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>684</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>61987</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>690</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>691</v>
+      </c>
+      <c r="J89" t="s">
+        <v>692</v>
+      </c>
+      <c r="K89" t="s">
+        <v>693</v>
+      </c>
+      <c r="L89" t="s">
+        <v>694</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>684</v>
+      </c>
+      <c r="O89" t="s">
+        <v>71</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
